--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43877</v>
+      </c>
+      <c r="E7" s="2">
         <v>43793</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43709</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43597</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43513</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43429</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43345</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43233</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43149</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43065</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42981</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42778</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42694</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>39072000</v>
+      </c>
+      <c r="E8" s="3">
         <v>37040000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47498000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34740000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35396000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35069000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44411000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32361000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32995000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31809000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42300000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28860000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29766000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28099000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34056000</v>
+      </c>
+      <c r="E9" s="3">
         <v>32233000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41310000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30233000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30720000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30623000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38671000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28131000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28733000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27617000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36697000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24970000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25927000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24288000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5016000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4807000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6188000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4507000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4676000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4446000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5740000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4230000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4262000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4192000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5603000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3890000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3839000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3811000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,16 +1056,19 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>4000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1062,8 +1085,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37806000</v>
+      </c>
+      <c r="E17" s="3">
         <v>35979000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46035000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33618000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34193000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42965000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31294000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31979000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30858000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40850000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27892000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28922000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27250000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1061000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1463000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1122000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1203000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>949000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1446000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1067000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1016000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>951000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1450000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>968000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>844000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>849000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,125 +1245,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E20" s="3">
         <v>35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>74000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>46000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>51000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>22000</v>
       </c>
       <c r="M20" s="3">
         <v>22000</v>
       </c>
       <c r="N20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1465000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2010000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1494000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1601000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1302000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1928000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1435000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1367000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1308000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1913000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1306000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1152000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1172000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>37000</v>
       </c>
       <c r="K22" s="3">
         <v>37000</v>
@@ -1339,116 +1379,125 @@
         <v>37000</v>
       </c>
       <c r="M22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="N22" s="3">
         <v>53000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>31000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1058000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1492000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1123000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1215000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>935000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1449000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1071000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>986000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>936000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1419000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>965000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>809000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>846000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E24" s="3">
         <v>202000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>340000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>280000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>377000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>185000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>402000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>310000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>247000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>285000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>487000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>259000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>288000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>291000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>947000</v>
+      </c>
+      <c r="E26" s="3">
         <v>856000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1152000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>843000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>838000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>750000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1047000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>761000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>739000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>651000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>932000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>706000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>521000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>555000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E27" s="3">
         <v>844000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1139000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>833000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>826000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>740000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1037000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>727000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>640000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>919000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>515000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>545000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,37 +1693,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-42000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>73000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>63000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>27000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-74000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-46000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-51000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-22000</v>
       </c>
       <c r="M32" s="3">
         <v>-22000</v>
       </c>
       <c r="N32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E33" s="3">
         <v>844000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1097000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>906000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>889000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>767000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1043000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>750000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>701000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>640000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>919000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>515000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>545000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E35" s="3">
         <v>844000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1097000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>906000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>889000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>767000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1043000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>750000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>701000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>640000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>919000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>515000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>545000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43877</v>
+      </c>
+      <c r="E38" s="2">
         <v>43793</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43709</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43597</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43513</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43429</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43345</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43233</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43149</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43065</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42981</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42778</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42694</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,290 +2140,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7786000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9027000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8384000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7013000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6080000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6778000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6055000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5877000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4781000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5689000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4546000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4538000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4744000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4805000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E42" s="3">
         <v>993000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1060000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1154000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1042000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1175000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1204000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1167000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1049000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1196000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1233000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1187000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1221000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1311000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1988000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1711000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1535000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1704000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1995000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1795000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1669000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1593000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2001000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1559000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1432000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1462000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1597000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1498000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11850000</v>
+      </c>
+      <c r="E44" s="3">
         <v>13818000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11395000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11304000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11356000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12205000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11040000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10626000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10671000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11213000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9834000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9736000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9530000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10721000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1094000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1111000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1110000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1175000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1001000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>321000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>430000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>397000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>240000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>272000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>333000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>368000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>235000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23703000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26643000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23485000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22285000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21648000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22954000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20289000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19693000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18899000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19897000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17317000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17256000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17460000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18570000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24077000</v>
+      </c>
+      <c r="E48" s="3">
         <v>23834000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20890000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20475000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20145000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19879000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19681000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19178000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19049000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18682000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18161000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17535000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17342000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17156000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E52" s="3">
         <v>954000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1025000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>992000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1006000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>981000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>860000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>734000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>755000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>799000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>869000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>840000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>828000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>806000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48782000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51431000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45400000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43752000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42799000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43814000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40830000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39605000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38703000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39378000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36347000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35631000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35630000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36532000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11072000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14440000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11679000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11331000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10711000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13133000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11237000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10705000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10061000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11992000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9608000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9425000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8764000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11003000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1699000</v>
       </c>
       <c r="F58" s="3">
         <v>1699000</v>
       </c>
       <c r="G58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="H58" s="3">
         <v>1698000</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>119000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>122000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>116000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>86000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1158000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2257000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11105000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9859000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9802000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10041000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9340000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8599000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8587000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8730000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8252000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7801000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10811000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7839000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6999000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22695000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26265000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23237000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22832000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22450000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22473000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19926000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19411000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18913000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20360000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17495000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21394000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18860000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19161000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5643000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5495000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5124000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4799000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4794000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6480000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6487000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6492000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6505000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6478000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6573000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2821000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2815000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3933000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3445000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3447000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1455000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1301000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1372000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1382000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1314000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1255000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1232000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1184000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1231000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1243000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1207000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35570000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30157000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29266000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28941000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30647000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28031000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27462000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26949000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28300000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25569000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25733000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23190000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24559000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11384000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10787000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10258000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9496000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8916000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8387000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7887000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7176000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6727000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6300000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5988000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5508000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8140000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7882000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16614000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15861000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15243000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14486000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13858000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13167000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12799000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12143000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11754000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11078000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10778000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9898000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12440000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11973000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43877</v>
+      </c>
+      <c r="E80" s="2">
         <v>43793</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43709</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43597</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43513</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43429</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43345</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43233</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43149</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43065</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42981</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42778</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42694</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E81" s="3">
         <v>844000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1097000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>906000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>889000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>767000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1043000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>750000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>701000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>640000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>919000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>515000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>545000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E83" s="3">
         <v>369000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>473000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>336000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>352000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>331000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>431000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>327000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>344000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>335000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>441000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>320000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>312000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>297000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2102000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2293000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2105000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-219000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2177000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1554000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2105000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>109000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2006000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1834000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1606000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>493000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2793000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-715000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-672000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-587000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-730000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-585000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-508000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-820000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-779000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-540000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-516000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-667000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-470000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-630000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-920000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-774000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-434000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-737000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-694000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-373000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-785000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-816000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-498000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-397000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-655000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-573000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-286000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-251000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-501000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-250000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-219000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-220000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-198000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1392000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-836000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-397000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-267000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-266000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-690000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-165000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-660000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1000</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-49000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>46000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>67000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1241000</v>
+      </c>
+      <c r="E102" s="3">
         <v>643000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1371000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>933000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-698000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>723000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>178000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1096000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-908000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1143000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-206000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-61000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43961</v>
+      </c>
+      <c r="E7" s="2">
         <v>43877</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43793</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43709</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43597</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43513</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43429</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43345</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43233</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43149</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43065</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42981</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42778</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42694</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37266000</v>
+      </c>
+      <c r="E8" s="3">
         <v>39072000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37040000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47498000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34740000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35396000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35069000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44411000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32361000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32995000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31809000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42300000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28860000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29766000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28099000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32249000</v>
+      </c>
+      <c r="E9" s="3">
         <v>34056000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32233000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41310000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30233000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30720000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30623000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38671000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28131000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28733000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27617000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36697000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24970000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25927000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24288000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5017000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5016000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4807000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6188000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4507000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4676000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4446000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5740000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4230000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4262000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4192000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5603000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3890000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3839000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3811000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,31 +1026,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1059,19 +1079,22 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>4000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1088,8 +1111,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36087000</v>
+      </c>
+      <c r="E17" s="3">
         <v>37806000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35979000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46035000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33618000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34193000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34120000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42965000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31294000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31979000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30858000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40850000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27892000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28922000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27250000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1266000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1061000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1463000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1122000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1203000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>949000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1446000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1067000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1016000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>951000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1450000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>968000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>844000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>849000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,134 +1279,141 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3">
         <v>45000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>74000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>46000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>22000</v>
       </c>
       <c r="N20" s="3">
         <v>22000</v>
       </c>
       <c r="O20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1465000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2010000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1494000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1601000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1302000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1928000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1435000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1367000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1308000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1913000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1306000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1172000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>37000</v>
       </c>
       <c r="L22" s="3">
         <v>37000</v>
@@ -1382,122 +1422,131 @@
         <v>37000</v>
       </c>
       <c r="N22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="O22" s="3">
         <v>53000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1277000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1058000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1492000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1123000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1215000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>935000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1449000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1071000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>986000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>936000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1419000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>965000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>809000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>846000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E24" s="3">
         <v>330000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>202000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>340000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>280000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>377000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>185000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>402000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>310000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>247000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>285000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>487000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>259000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>288000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>291000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E26" s="3">
         <v>947000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>856000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1152000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>843000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>838000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>750000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1047000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>761000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>739000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>651000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>932000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>706000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>521000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>555000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E27" s="3">
         <v>931000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>844000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1139000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>833000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>826000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>740000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1037000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>727000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>640000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>919000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>515000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>545000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,29 +1768,29 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-42000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>73000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>63000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>27000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>6000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-45000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-74000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-46000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-22000</v>
       </c>
       <c r="N32" s="3">
         <v>-22000</v>
       </c>
       <c r="O32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E33" s="3">
         <v>931000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>844000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1097000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>906000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>889000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>767000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1043000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>750000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>701000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>640000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>919000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>515000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>545000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E35" s="3">
         <v>931000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>844000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1097000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>906000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>889000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>767000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1043000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>750000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>701000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>640000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>919000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>515000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>545000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43961</v>
+      </c>
+      <c r="E38" s="2">
         <v>43877</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43793</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43709</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43597</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43513</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43429</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43345</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43233</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43149</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43065</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42981</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42778</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42694</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,308 +2227,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10826000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7786000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9027000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8384000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7013000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6080000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6778000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6055000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5877000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4781000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5689000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4546000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4538000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4744000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4805000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E42" s="3">
         <v>929000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>993000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1060000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1154000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1042000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1175000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1204000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1167000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1049000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1196000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1233000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1187000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1221000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1311000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1988000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1711000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1535000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1704000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1995000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1795000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1669000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1593000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2001000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1559000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1432000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1462000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1498000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11010000</v>
+      </c>
+      <c r="E44" s="3">
         <v>11850000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13818000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11395000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11304000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11356000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12205000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11040000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10626000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10671000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11213000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9834000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9736000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9530000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10721000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1150000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1094000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1111000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1110000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1175000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1001000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>321000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>430000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>397000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>240000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>272000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>333000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>368000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>235000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25254000</v>
+      </c>
+      <c r="E46" s="3">
         <v>23703000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26643000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23485000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22285000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21648000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22954000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20289000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19693000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18899000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19897000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17317000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17256000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17460000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18570000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,81 +2596,87 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24276000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24077000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23834000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20890000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20475000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20145000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19879000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19681000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19178000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19049000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18682000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18161000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17535000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17342000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17156000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1242000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1002000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>954000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1025000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>992000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1006000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>981000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>860000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>734000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>755000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>799000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>869000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>840000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>828000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>806000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51732000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48782000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51431000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45400000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43752000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42799000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43814000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40830000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39605000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38703000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39378000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36347000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35631000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35630000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36532000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10813000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11072000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14440000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11679000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11331000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10711000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13133000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11237000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10705000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10061000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11992000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9608000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9425000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8764000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11003000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E58" s="3">
         <v>518000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1699000</v>
       </c>
       <c r="G58" s="3">
         <v>1699000</v>
       </c>
       <c r="H58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="I58" s="3">
         <v>1698000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>119000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>122000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>116000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1158000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2257000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1159000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10440000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11105000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10113000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9859000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9802000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10041000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9340000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8599000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8587000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8730000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8252000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7801000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10811000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7839000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6999000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22779000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22695000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26265000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23237000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22832000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22450000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22473000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19926000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19411000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18913000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20360000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17495000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21394000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18860000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19161000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8227000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5643000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5495000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5124000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4799000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4794000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6480000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6487000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6492000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6505000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6478000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6573000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2821000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2815000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3933000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3523000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3445000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3447000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1455000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1301000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1372000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1382000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1314000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1255000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1232000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1184000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1231000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1243000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1207000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34930000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35570000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30157000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29266000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28941000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30647000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28031000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27462000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26949000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28300000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25569000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25733000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23190000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24559000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11883000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11384000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10787000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10258000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9496000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8916000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8387000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7887000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7176000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6727000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6300000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5988000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5508000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8140000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7882000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16802000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16614000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15861000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15243000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14486000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13858000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13167000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12799000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12143000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11754000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11078000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10778000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9898000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12440000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11973000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43961</v>
+      </c>
+      <c r="E80" s="2">
         <v>43877</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43793</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43709</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43597</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43513</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43429</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43345</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43233</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43149</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43065</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42981</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42778</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42694</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E81" s="3">
         <v>931000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>844000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1097000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>906000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>889000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>767000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1043000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>750000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>701000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>640000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>919000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>515000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>545000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E83" s="3">
         <v>389000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>369000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>473000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>336000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>352000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>331000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>431000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>327000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>344000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>335000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>441000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>320000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>312000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>297000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E89" s="3">
         <v>619000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2102000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2293000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2105000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-219000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2177000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1554000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2105000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>109000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2006000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1834000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1606000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>493000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2793000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-698000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-545000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-715000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-672000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-587000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-730000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-585000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-508000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-820000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-779000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-540000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-667000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1850000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-470000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-630000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-920000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-774000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-434000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-737000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-694000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-373000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-785000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-816000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-498000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-397000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-655000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-287000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-573000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-286000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-251000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-501000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-250000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-219000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-220000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-198000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-198000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-836000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-397000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-267000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-266000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-690000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-165000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-660000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-49000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>46000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>67000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-52000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3040000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>643000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1371000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>933000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-698000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>723000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>178000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1096000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-908000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1143000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-206000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1426000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44073</v>
+      </c>
+      <c r="E7" s="2">
         <v>43961</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43877</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43793</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43709</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43597</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43513</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43429</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43345</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43233</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43149</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43065</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42981</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42778</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42694</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53383000</v>
+      </c>
+      <c r="E8" s="3">
         <v>37266000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39072000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37040000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47498000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34740000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35396000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35069000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44411000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32361000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32995000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31809000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42300000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28860000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29766000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28099000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32249000</v>
+        <v>46337000</v>
       </c>
       <c r="E9" s="3">
+        <v>32205000</v>
+      </c>
+      <c r="F9" s="3">
         <v>34056000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32233000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41310000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30233000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30720000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30623000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38671000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28131000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28733000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27617000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36697000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24970000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25927000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24288000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5017000</v>
+        <v>7046000</v>
       </c>
       <c r="E10" s="3">
+        <v>5061000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5016000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4807000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6188000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4507000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4676000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4446000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5740000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4230000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4262000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4192000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5603000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3890000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3839000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3811000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,16 +1046,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>370000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>302000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1055,8 +1075,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1082,22 +1102,25 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4000</v>
       </c>
       <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>4000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1137,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51454000</v>
+      </c>
+      <c r="E17" s="3">
         <v>36087000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37806000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35979000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46035000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33618000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34193000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34120000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42965000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31294000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31979000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30858000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40850000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27892000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28922000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27250000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1179000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1266000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1061000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1463000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1122000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1203000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>949000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1446000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1067000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1016000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>951000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1450000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>968000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>844000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>849000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,143 +1313,150 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>45000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>74000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>46000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>51000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>22000</v>
       </c>
       <c r="O20" s="3">
         <v>22000</v>
       </c>
       <c r="P20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2425000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1582000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1465000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2010000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1494000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1601000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1302000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1928000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1435000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1367000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1308000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1913000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1306000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1152000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1172000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E22" s="3">
         <v>37000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>37000</v>
       </c>
       <c r="M22" s="3">
         <v>37000</v>
@@ -1425,128 +1465,137 @@
         <v>37000</v>
       </c>
       <c r="O22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="P22" s="3">
         <v>53000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1163000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1277000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1058000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1492000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1123000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1215000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>935000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1449000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1071000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>986000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>936000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1419000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>965000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>809000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>846000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E24" s="3">
         <v>311000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>330000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>202000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>340000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>280000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>377000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>185000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>402000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>310000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>247000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>285000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>487000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>259000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>288000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>291000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E26" s="3">
         <v>852000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>947000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>856000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1152000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>843000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>838000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>750000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1047000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>761000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>739000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>651000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>932000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>706000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>521000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>555000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E27" s="3">
         <v>838000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>931000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>844000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1139000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>833000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>826000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>740000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1037000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>727000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>640000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>919000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>515000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>545000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,13 +1815,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1771,29 +1832,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-42000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>73000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>63000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>27000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-45000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-74000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-46000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-51000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-22000</v>
       </c>
       <c r="O32" s="3">
         <v>-22000</v>
       </c>
       <c r="P32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E33" s="3">
         <v>838000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>931000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>844000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1097000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>906000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>889000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>767000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1043000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>750000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>701000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>640000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>919000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>515000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>545000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E35" s="3">
         <v>838000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>931000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>844000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1097000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>906000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>889000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>767000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1043000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>750000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>701000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>640000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>919000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>515000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>545000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44073</v>
+      </c>
+      <c r="E38" s="2">
         <v>43961</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43877</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43793</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43709</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43597</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43513</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43429</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43345</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43233</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43149</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43065</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42981</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42778</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42694</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,326 +2314,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12277000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10826000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7786000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9027000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8384000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7013000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6080000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6778000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6055000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5877000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4781000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5689000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4546000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4538000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4744000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4805000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E42" s="3">
         <v>948000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>929000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>993000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1060000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1154000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1042000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1175000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1204000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1167000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1049000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1196000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1233000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1187000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1221000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1311000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1507000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1988000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1711000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1535000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1704000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1995000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1795000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1669000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1593000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2001000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1559000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1432000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1462000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1597000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1498000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12242000</v>
+      </c>
+      <c r="E44" s="3">
         <v>11010000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11850000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13818000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11395000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11304000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11356000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12205000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11040000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10626000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10671000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11213000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9834000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9736000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9530000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10721000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E45" s="3">
         <v>963000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1150000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1094000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1111000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1110000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1175000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1001000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>321000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>430000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>397000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>240000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>272000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>333000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>368000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>235000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28120000</v>
+      </c>
+      <c r="E46" s="3">
         <v>25254000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23703000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26643000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23485000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22285000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21648000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22954000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20289000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19693000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18899000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19897000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17317000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17256000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17460000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18570000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,69 +2704,75 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24276000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24077000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23834000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20890000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20475000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20145000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19879000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19681000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19178000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19049000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18682000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18161000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17535000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17342000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17156000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2678,8 +2789,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E52" s="3">
         <v>960000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1002000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>954000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1025000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>992000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1006000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>981000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>860000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>734000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>755000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>799000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>869000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>840000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>828000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>806000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55556000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51732000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48782000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51431000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45400000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43752000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42799000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43814000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40830000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39605000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38703000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39378000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36347000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35631000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35630000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36532000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14172000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10813000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11072000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14440000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11679000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11331000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10711000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13133000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11237000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10705000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10061000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11992000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9608000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9425000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8764000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11003000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1526000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>518000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1699000</v>
       </c>
       <c r="H58" s="3">
         <v>1699000</v>
       </c>
       <c r="I58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1698000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>119000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>122000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>116000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>86000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1158000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2257000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1159000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10546000</v>
+      </c>
+      <c r="E59" s="3">
         <v>10440000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11105000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10113000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9859000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9802000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10041000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9340000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8599000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8587000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8730000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8252000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7801000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10811000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7839000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6999000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24844000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22779000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22695000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26265000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23237000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22832000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22450000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22473000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19926000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19411000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18913000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20360000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17495000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21394000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18860000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19161000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8171000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8227000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5643000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5495000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5124000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4799000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4794000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6480000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6487000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6492000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6505000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6478000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6573000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2821000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2815000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3933000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3836000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3523000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3445000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3447000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1455000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1301000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1372000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1382000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1314000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1255000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1232000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1184000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1231000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1243000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1207000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37272000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34930000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35570000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30157000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29266000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28941000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30647000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28031000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27462000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26949000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28300000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25569000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25733000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23190000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24559000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12879000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11883000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11384000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10787000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10258000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9496000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8916000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8387000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7887000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7176000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6727000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6300000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5988000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5508000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8140000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7882000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18284000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16802000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16614000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15861000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15243000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14486000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13858000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13167000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12799000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12143000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11754000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11078000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10778000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9898000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12440000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11973000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44073</v>
+      </c>
+      <c r="E80" s="2">
         <v>43961</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43877</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43793</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43709</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43597</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43513</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43429</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43345</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43233</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43149</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43065</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42981</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42778</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42694</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E81" s="3">
         <v>838000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>931000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>844000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1097000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>906000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>889000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>767000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1043000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>750000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>701000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>640000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>919000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>515000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>545000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E83" s="3">
         <v>382000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>389000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>369000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>473000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>336000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>352000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>331000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>431000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>327000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>344000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>335000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>441000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>320000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>312000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>297000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4242000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1898000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>619000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2102000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2293000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2105000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-219000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2177000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1554000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2105000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>109000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2006000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1834000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1606000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>493000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2793000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-852000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-698000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-545000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-715000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-672000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-587000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-730000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-585000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-508000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-820000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-779000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-540000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-516000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-667000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-941000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-470000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-630000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-920000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-774000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-434000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-737000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-694000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-373000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-785000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-816000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-498000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-397000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-655000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-619000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-287000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-573000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-286000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-251000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-501000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-250000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-219000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-220000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-198000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1918000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2999000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-836000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-397000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-267000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-266000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-690000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-165000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-660000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>-1000</v>
       </c>
       <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-49000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>46000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>67000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-52000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3040000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>643000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1371000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>933000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-698000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>723000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>178000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1096000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-908000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1143000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-61000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1426000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,283 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44241</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44157</v>
+      </c>
+      <c r="F7" s="2">
         <v>44073</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43961</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43877</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43793</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43709</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43597</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43513</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43429</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43345</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43233</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43149</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43065</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42981</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42778</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42694</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44769000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43208000</v>
+      </c>
+      <c r="F8" s="3">
         <v>53383000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>37266000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>39072000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>37040000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>47498000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>34740000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35396000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35069000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>44411000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>32361000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>32995000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>31809000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>42300000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>28860000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>29766000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>28099000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39078000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37458000</v>
+      </c>
+      <c r="F9" s="3">
         <v>46337000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>32205000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>34056000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>32233000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>41310000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>30233000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30720000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>30623000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38671000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>28131000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>28733000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>27617000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>36697000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>24970000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>25927000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>24288000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5691000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5750000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7046000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5061000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5016000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4807000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6188000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4507000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4676000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4446000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5740000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4230000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4262000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4192000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5603000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3890000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3839000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>3811000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,22 +1082,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>212000</v>
+      </c>
+      <c r="F14" s="3">
         <v>370000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>302000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1078,11 +1117,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1105,28 +1144,34 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>16000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1140,11 +1185,11 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43429000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41778000</v>
+      </c>
+      <c r="F17" s="3">
         <v>51454000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>36087000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>37806000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>35979000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>46035000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>33618000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34193000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>34120000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>42965000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>31294000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>31979000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>30858000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40850000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>27892000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>28922000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>27250000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1929000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1179000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1266000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1061000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1463000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1122000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1203000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>949000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1446000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1067000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1016000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>951000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1450000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>968000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>844000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>849000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1379,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>45000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>74000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>46000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>51000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1775000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1863000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2425000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1582000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1700000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1465000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2010000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1494000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1601000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1302000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1928000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1435000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1367000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1308000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1913000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1306000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1152000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1172000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>37000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>45000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>37000</v>
       </c>
       <c r="O22" s="3">
         <v>37000</v>
       </c>
       <c r="P22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="R22" s="3">
         <v>53000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>31000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>29000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1869000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1163000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1277000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1058000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1492000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1123000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1215000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>935000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1449000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1071000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>986000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>936000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>965000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>809000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>846000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F24" s="3">
         <v>465000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>311000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>330000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>202000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>340000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>280000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>377000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>185000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>402000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>310000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>247000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>285000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>487000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>259000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>288000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>291000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1404000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>852000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>947000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>856000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1152000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>843000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>838000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>750000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1047000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>761000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>739000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>651000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>932000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>706000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>521000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>555000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1389000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>838000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>931000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>844000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1139000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>833000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>826000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>740000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1037000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>749000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>727000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>640000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>919000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>700000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>515000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>545000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,49 +1933,55 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-42000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>73000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>63000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>27000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>6000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-45000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-35000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-74000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-46000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-51000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1389000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>838000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>931000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>844000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1097000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>906000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>889000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>767000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1043000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>750000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>701000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>640000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>919000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>700000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>515000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>545000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1389000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>838000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>931000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>844000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1097000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>906000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>889000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>767000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1043000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>750000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>701000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>640000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>919000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>700000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>515000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>545000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44241</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44157</v>
+      </c>
+      <c r="F38" s="2">
         <v>44073</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43961</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43877</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43793</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43709</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43597</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43513</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43429</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43345</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43233</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43149</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43065</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42981</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42778</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42694</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,344 +2486,382 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8637000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13590000</v>
+      </c>
+      <c r="F41" s="3">
         <v>12277000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10826000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7786000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9027000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8384000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7013000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6080000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6778000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6055000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5877000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4781000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5689000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4546000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4538000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4744000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4805000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>833000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1028000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>948000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>929000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>993000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1060000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1154000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1042000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1175000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1204000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1167000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1049000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1196000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1187000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1221000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1311000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1550000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1507000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1988000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1711000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1535000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1704000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1995000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1795000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1669000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1593000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2001000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1559000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1462000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1597000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1498000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13865000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>14901000</v>
+      </c>
+      <c r="F44" s="3">
         <v>12242000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>11010000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>11850000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>13818000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>11395000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>11304000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11356000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>12205000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>11040000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>10626000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10671000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>11213000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>9834000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>9736000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>9530000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>10721000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1023000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>963000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1150000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1094000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1111000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1110000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1175000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1001000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>321000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>430000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>397000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>240000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>272000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>333000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>368000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>235000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26308000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32096000</v>
+      </c>
+      <c r="F46" s="3">
         <v>28120000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>25254000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>23703000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26643000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>23485000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>22285000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21648000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22954000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20289000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19693000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18899000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>19897000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17317000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>17256000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17460000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18570000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,78 +2916,90 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25418000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25073000</v>
+      </c>
+      <c r="F48" s="3">
         <v>25187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>24276000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>24077000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>23834000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>20890000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>20475000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20145000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19879000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19681000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19178000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19049000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18682000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18161000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>17535000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>17342000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>17156000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1271000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2792,11 +3013,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1957000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="F52" s="3">
         <v>978000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>960000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1002000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>954000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1025000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>992000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1006000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>981000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>860000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>734000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>755000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>799000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>869000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>840000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>828000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>806000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54918000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>60217000</v>
+      </c>
+      <c r="F54" s="3">
         <v>55556000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>51732000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>48782000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>51431000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>45400000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>43752000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42799000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>43814000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>40830000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39605000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>38703000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>39378000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36347000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>35631000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>35630000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>36532000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3402,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14383000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17014000</v>
+      </c>
+      <c r="F57" s="3">
         <v>14172000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10813000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11072000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>14440000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11679000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11331000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10711000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13133000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11237000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10705000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10061000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11992000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9608000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9425000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8764000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11003000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F58" s="3">
         <v>126000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1526000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>518000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1712000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1699000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1699000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1698000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>90000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>119000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>122000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>116000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>86000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1158000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2257000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1159000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12086000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15557000</v>
+      </c>
+      <c r="F59" s="3">
         <v>10546000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10440000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11105000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10113000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9859000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9802000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10041000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9340000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8599000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8587000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8730000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8252000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7801000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10811000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7839000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6999000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26564000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32667000</v>
+      </c>
+      <c r="F60" s="3">
         <v>24844000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22779000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>22695000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>26265000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23237000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>22832000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22450000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>22473000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19926000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19411000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18913000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20360000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17495000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>21394000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>18860000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19161000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7522000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7529000</v>
+      </c>
+      <c r="F61" s="3">
         <v>8171000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8227000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5643000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5495000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5124000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4799000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4794000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6480000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6487000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6492000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6505000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6478000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6573000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2821000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2815000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3933000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4703000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4712000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3836000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3523000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3445000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3447000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1455000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1301000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1372000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1382000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1314000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1255000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1232000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1184000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1231000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1243000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1207000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39266000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45357000</v>
+      </c>
+      <c r="F66" s="3">
         <v>37272000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34930000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>32168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>35570000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>30157000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>29266000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>28941000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>30647000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>28031000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>27462000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26949000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>28300000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25569000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>25733000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>23190000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>24559000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9766000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9232000</v>
+      </c>
+      <c r="F72" s="3">
         <v>12879000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>11883000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>11384000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10787000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>10258000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9496000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8916000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8387000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7887000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7176000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6727000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6300000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5988000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5508000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8140000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>7882000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15652000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14860000</v>
+      </c>
+      <c r="F76" s="3">
         <v>18284000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16802000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16614000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15861000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15243000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14486000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13858000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13167000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12799000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12143000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11754000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11078000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10778000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9898000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12440000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11973000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44241</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44157</v>
+      </c>
+      <c r="F80" s="2">
         <v>44073</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43961</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43877</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43793</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43709</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43597</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43513</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43429</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43345</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43233</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43149</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43065</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42981</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42778</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42694</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1389000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>838000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>931000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>844000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1097000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>906000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>889000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>767000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1043000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>750000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>701000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>640000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>919000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>700000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>515000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>545000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>404000</v>
+      </c>
+      <c r="F83" s="3">
         <v>505000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>382000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>389000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>369000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>473000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>336000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>352000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>331000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>431000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>327000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>344000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>335000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>441000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>320000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>312000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>297000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2647000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4242000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1898000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>619000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2102000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2293000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2105000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-219000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2177000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1554000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2105000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>109000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2006000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1834000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1606000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>493000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2793000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-573000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-893000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-852000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-698000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-545000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-715000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-672000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-587000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-730000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-585000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-508000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-820000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-779000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-540000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-516000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-667000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-355000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-682000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-941000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-470000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-630000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-920000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-774000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-434000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-737000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-694000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-373000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-785000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-816000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-498000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-397000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-655000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5549,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4430000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-619000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-287000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-573000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-286000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-251000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-501000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-250000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-219000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-220000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3508000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-198000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-198000</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4650000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2999000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-836000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-397000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-49000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-267000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-266000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-690000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-58000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-165000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-660000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F101" s="3">
         <v>68000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-49000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>67000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-52000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4953000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1451000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3040000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>643000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1371000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>933000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-698000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>723000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>178000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1096000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-908000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1143000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-206000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-61000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1426000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E7" s="2">
         <v>44241</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44157</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44073</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43961</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43877</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43793</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43709</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43597</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43513</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43429</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43345</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43233</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43149</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43065</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42981</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42862</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42778</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42694</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45277000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44769000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43208000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53383000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37266000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39072000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37040000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47498000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34740000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35396000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35069000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44411000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32361000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32995000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31809000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>42300000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28860000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29766000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28099000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39415000</v>
+      </c>
+      <c r="E9" s="3">
         <v>39078000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37458000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>46337000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32205000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34056000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32233000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41310000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30233000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30720000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30623000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38671000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28131000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28733000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27617000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36697000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>24970000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>25927000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>24288000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5862000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5691000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5750000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7046000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5061000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5016000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4807000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6188000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4507000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4676000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4446000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5740000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4230000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4262000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4192000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5603000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3890000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3839000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3811000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,25 +1104,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="3">
         <v>246000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>212000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>370000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>302000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1123,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,20 +1183,20 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>16000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4000</v>
       </c>
       <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>4000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1191,8 +1213,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43614000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43429000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41778000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51454000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36087000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37806000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35979000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46035000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33618000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34193000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34120000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42965000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31294000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31979000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30858000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40850000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27892000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28922000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>27250000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1663000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1340000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1430000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1929000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1179000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1266000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1061000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1463000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1122000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1203000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>949000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1446000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1067000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>951000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1450000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>968000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>844000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>849000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>74000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>46000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>51000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>22000</v>
       </c>
       <c r="R20" s="3">
         <v>22000</v>
       </c>
       <c r="S20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="T20" s="3">
         <v>18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2092000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1775000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1863000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2425000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1582000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1465000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2010000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1494000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1601000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1302000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1928000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1435000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1367000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1308000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1913000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1306000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1152000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1172000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,37 +1553,37 @@
         <v>40000</v>
       </c>
       <c r="E22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F22" s="3">
         <v>39000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>36000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>37000</v>
       </c>
       <c r="P22" s="3">
         <v>37000</v>
@@ -1553,146 +1592,155 @@
         <v>37000</v>
       </c>
       <c r="R22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="S22" s="3">
         <v>53000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>31000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1650000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1319000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1420000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1869000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1163000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1277000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1058000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1492000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1123000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1215000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>935000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1449000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1071000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>986000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>936000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1419000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>965000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>809000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>846000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E24" s="3">
         <v>348000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>239000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>465000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>311000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>330000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>202000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>340000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>280000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>377000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>185000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>402000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>310000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>247000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>285000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>487000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>259000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>288000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>291000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E26" s="3">
         <v>971000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1181000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1404000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>852000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>947000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>856000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>843000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>838000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>750000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1047000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>761000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>739000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>651000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>932000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>706000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>521000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>555000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E27" s="3">
         <v>951000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1166000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1389000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>838000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>931000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>844000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1139000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>833000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>826000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>740000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1037000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>727000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>640000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>919000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>515000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>545000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,11 +2010,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1962,29 +2022,29 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-42000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>73000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>63000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>27000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-74000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-46000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-51000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-22000</v>
       </c>
       <c r="R32" s="3">
         <v>-22000</v>
       </c>
       <c r="S32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E33" s="3">
         <v>951000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1166000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1389000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>838000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>931000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>844000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1097000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>906000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>889000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>767000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1043000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>750000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>701000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>640000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>919000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>515000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>545000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E35" s="3">
         <v>951000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1166000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1389000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>838000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>931000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>844000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1097000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>906000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>889000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>767000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1043000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>750000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>701000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>640000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>919000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>515000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>545000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E38" s="2">
         <v>44241</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44157</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44073</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43961</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43877</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43793</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43709</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43597</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43513</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43429</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43345</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43233</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43149</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43065</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42981</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42862</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42778</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42694</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,380 +2573,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10226000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8637000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13590000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12277000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10826000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7786000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9027000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8384000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7013000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6080000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6778000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6055000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5877000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4781000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5689000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4546000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4538000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4744000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4805000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E42" s="3">
         <v>617000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>833000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1028000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>948000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>929000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>993000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1060000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1154000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1042000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1175000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1204000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1167000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1196000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1233000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1187000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1221000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1311000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1934000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1646000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1550000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1507000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1988000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1711000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1535000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1704000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1995000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1795000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1669000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1593000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2001000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1559000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1432000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1462000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1597000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1498000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13975000</v>
+      </c>
+      <c r="E44" s="3">
         <v>13865000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14901000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12242000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11010000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11850000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13818000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11395000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11304000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11356000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12205000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11040000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10626000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10671000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11213000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9834000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9736000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9530000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10721000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1255000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1126000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1023000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>963000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1150000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1094000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1111000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1110000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1175000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1001000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>321000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>430000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>397000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>240000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>272000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>333000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>368000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>235000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27916000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26308000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32096000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28120000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25254000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23703000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26643000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23485000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22285000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21648000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22954000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20289000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19693000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18899000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19897000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17317000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17256000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17460000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18570000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,87 +3026,93 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26052000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25418000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25073000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25187000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24276000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24077000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23834000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20890000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20475000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20145000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19879000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19681000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19178000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19049000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18682000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18161000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17535000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17342000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17156000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1235000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1217000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1271000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3019,8 +3129,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1957000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1831000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>978000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>960000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1002000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>954000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1025000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>992000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1006000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>981000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>860000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>734000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>755000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>799000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>869000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>840000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>828000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>806000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57274000</v>
+      </c>
+      <c r="E54" s="3">
         <v>54918000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60217000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55556000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>51732000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48782000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51431000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45400000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43752000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42799000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43814000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40830000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39605000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38703000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39378000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36347000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35631000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35630000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36532000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15538000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14383000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17014000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14172000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10813000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11072000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14440000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11679000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11331000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10711000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13133000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11237000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10705000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10061000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11992000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9608000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9425000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8764000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11003000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E58" s="3">
         <v>95000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>96000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>126000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1526000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>518000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1699000</v>
       </c>
       <c r="K58" s="3">
         <v>1699000</v>
       </c>
       <c r="L58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="M58" s="3">
         <v>1698000</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>119000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>122000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>116000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>86000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1158000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2257000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1159000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12352000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12086000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15557000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10546000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10440000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11105000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10113000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9859000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9802000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10041000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9340000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8599000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8587000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8730000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8252000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7801000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10811000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7839000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6999000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27982000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26564000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32667000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24844000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22779000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22695000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26265000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23237000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22832000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22450000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22473000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19926000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19411000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18913000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20360000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17495000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21394000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18860000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19161000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7522000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7529000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8171000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8227000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5643000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5495000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5124000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4799000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4794000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6480000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6487000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6492000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6505000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6478000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6573000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2821000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2815000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3933000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4823000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4703000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4712000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3836000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3523000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3445000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3447000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1455000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1301000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1372000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1382000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1314000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1255000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1232000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1184000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1231000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1243000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1207000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40792000</v>
+      </c>
+      <c r="E66" s="3">
         <v>39266000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45357000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37272000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32168000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35570000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30157000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29266000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28941000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30647000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28031000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27462000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26949000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28300000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25569000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25733000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23190000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24559000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10466000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9766000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9232000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12879000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11883000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11384000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10787000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10258000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9496000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8916000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8387000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7887000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7176000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6727000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6300000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5988000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5508000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8140000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7882000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16482000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15652000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14860000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18284000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16802000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16614000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15861000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15243000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14486000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13858000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13167000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12799000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12143000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11754000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11078000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10778000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9898000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12440000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11973000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E80" s="2">
         <v>44241</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44157</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44073</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43961</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43877</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43793</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43709</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43597</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43513</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43429</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43345</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43233</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43149</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43065</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42981</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42862</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42778</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42694</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E81" s="3">
         <v>951000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1166000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1389000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>838000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>931000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>844000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1097000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>906000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>889000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>767000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1043000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>750000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>701000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>640000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>919000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>515000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>545000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E83" s="3">
         <v>416000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>404000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>505000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>382000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>389000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>369000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>473000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>336000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>352000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>331000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>431000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>327000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>344000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>335000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>441000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>320000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>312000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>297000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E89" s="3">
         <v>38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2647000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4242000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1898000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>619000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2102000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2293000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2105000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-219000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2177000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1554000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2105000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2006000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1834000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1606000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>493000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2793000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1028000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-573000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-893000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-852000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-698000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-545000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-715000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-672000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-587000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-730000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-585000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-508000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-820000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-779000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-540000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-516000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-667000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1343000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-355000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-682000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-941000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-470000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-630000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-920000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-774000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-434000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-737000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-694000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-373000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-785000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-816000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-498000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-397000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-655000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-310000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-619000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-287000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-573000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-286000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-251000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-501000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-250000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-219000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-198000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-198000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2999000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-836000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-397000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-267000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-266000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-690000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-165000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-660000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>68000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1000</v>
       </c>
       <c r="K101" s="3">
         <v>-1000</v>
       </c>
       <c r="L101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-49000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>46000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>67000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-52000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1313000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1451000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3040000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>643000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1371000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>933000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-698000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>723000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>178000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1096000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-908000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1143000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-206000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1426000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E7" s="2">
         <v>44325</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44241</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44157</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44073</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43961</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43877</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43793</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43709</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43597</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43513</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43429</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43345</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43233</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43149</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43065</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42981</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42862</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42778</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42694</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62675000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45277000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44769000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43208000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53383000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37266000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39072000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37040000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47498000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34740000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35396000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35069000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44411000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32361000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32995000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31809000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>42300000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28860000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29766000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28099000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54733000</v>
+      </c>
+      <c r="E9" s="3">
         <v>39415000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39078000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37458000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46337000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32205000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34056000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32233000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41310000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30233000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30720000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30623000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38671000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28131000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28733000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27617000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36697000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>24970000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25927000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>24288000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7942000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5862000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5691000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5750000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7046000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5061000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5016000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4807000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6188000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4507000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4676000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4446000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5740000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4230000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4262000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4192000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5603000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3890000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3839000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3811000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E14" s="3">
         <v>57000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>246000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>212000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>370000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>302000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,20 +1209,20 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
         <v>16000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4000</v>
       </c>
       <c r="J15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>4000</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1216,8 +1239,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>60400000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43614000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43429000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41778000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51454000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36087000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37806000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35979000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46035000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33618000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34193000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34120000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42965000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31294000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31979000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30858000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40850000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27892000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28922000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>27250000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1663000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1340000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1430000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1929000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1179000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1266000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1061000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1463000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1122000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1203000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>949000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1446000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1016000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>951000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1450000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>968000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>844000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>849000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,179 +1447,186 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E20" s="3">
         <v>27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>74000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>46000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>51000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>22000</v>
       </c>
       <c r="S20" s="3">
         <v>22000</v>
       </c>
       <c r="T20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U20" s="3">
         <v>18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2902000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2092000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1775000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1863000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1582000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1465000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2010000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1494000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1601000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1302000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1928000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1435000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1367000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1308000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1913000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1306000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1152000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1172000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="E22" s="3">
         <v>40000</v>
       </c>
       <c r="F22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="3">
         <v>39000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>36000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>37000</v>
       </c>
       <c r="Q22" s="3">
         <v>37000</v>
@@ -1595,152 +1635,161 @@
         <v>37000</v>
       </c>
       <c r="S22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="T22" s="3">
         <v>53000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>31000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2291000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1650000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1319000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1420000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1869000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1163000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1277000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1058000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1492000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1123000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1215000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>935000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1449000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1071000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>986000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>936000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1419000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>965000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>809000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>846000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E24" s="3">
         <v>417000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>348000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>239000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>465000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>311000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>330000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>202000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>340000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>280000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>377000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>402000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>310000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>247000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>285000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>487000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>259000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>288000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>291000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1233000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>971000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1181000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1404000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>852000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>947000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>856000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1152000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>843000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>838000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>750000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1047000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>761000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>739000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>651000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>932000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>706000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>521000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>555000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1220000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>951000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1166000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1389000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>838000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>931000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>844000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1139000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>833000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>826000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>740000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1037000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>749000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>727000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>640000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>919000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>515000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>545000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2013,11 +2074,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2025,29 +2086,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-42000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>73000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>63000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>27000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-74000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-46000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-51000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-22000</v>
       </c>
       <c r="S32" s="3">
         <v>-22000</v>
       </c>
       <c r="T32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1220000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>951000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1166000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1389000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>838000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>931000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>844000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1097000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>906000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>889000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>767000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1043000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>750000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>701000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>640000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>919000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>515000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>545000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1220000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>951000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1166000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1389000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>838000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>931000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>844000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1097000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>906000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>889000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>767000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1043000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>750000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>701000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>640000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>919000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>515000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>545000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E38" s="2">
         <v>44325</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44241</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44157</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44073</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43961</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43877</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43793</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43709</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43597</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43513</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43429</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43345</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43233</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43149</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43065</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42981</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42862</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42778</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42694</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,398 +2660,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11258000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10226000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8637000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13590000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12277000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10826000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7786000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9027000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8384000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7013000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6080000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6778000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6055000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5877000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4781000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5689000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4546000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4538000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4744000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4805000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E42" s="3">
         <v>900000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>617000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>833000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1028000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>948000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>929000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>993000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1060000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1154000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1042000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1175000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1204000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1049000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1196000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1233000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1187000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1221000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1311000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1803000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1595000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1934000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1646000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1550000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1507000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1988000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1711000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1535000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1704000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1995000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1795000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1669000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1593000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2001000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1559000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1432000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1462000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1597000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1498000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14215000</v>
+      </c>
+      <c r="E44" s="3">
         <v>13975000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13865000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14901000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12242000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11010000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11850000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13818000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11395000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11304000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11356000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12205000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11040000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10626000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10671000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11213000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9834000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9736000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9530000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10721000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1220000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1255000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1126000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1023000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>963000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1150000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1094000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1111000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1110000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1175000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1001000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>321000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>430000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>397000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>240000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>272000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>333000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>368000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>235000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29505000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27916000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26308000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32096000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28120000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25254000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23703000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26643000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23485000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22285000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21648000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22954000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20289000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19693000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18899000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19897000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17317000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17256000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17460000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18570000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,93 +3134,99 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26382000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26052000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25418000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25073000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25187000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24276000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24077000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23834000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20890000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20475000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20145000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19879000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19681000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19178000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19049000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18682000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18161000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17535000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17342000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17156000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1234000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1235000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1217000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1271000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3132,8 +3243,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2072000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1957000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1831000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>978000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>960000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1002000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>954000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1025000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>992000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1006000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>981000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>860000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>734000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>755000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>799000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>869000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>840000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>828000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>806000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59268000</v>
+      </c>
+      <c r="E54" s="3">
         <v>57274000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>54918000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55556000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51732000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48782000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51431000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45400000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43752000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42799000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43814000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40830000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39605000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38703000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39378000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36347000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35631000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35630000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36532000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16278000</v>
+      </c>
+      <c r="E57" s="3">
         <v>15538000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14383000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17014000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14172000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10813000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11072000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14440000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11679000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11331000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10711000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13133000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11237000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10705000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10061000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11992000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9608000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9425000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8764000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11003000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E58" s="3">
         <v>92000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>95000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>96000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>126000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1526000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>518000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1699000</v>
       </c>
       <c r="L58" s="3">
         <v>1699000</v>
       </c>
       <c r="M58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="N58" s="3">
         <v>1698000</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>90000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>119000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>122000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>116000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>86000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1158000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2257000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1159000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12364000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12352000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12086000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15557000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10546000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10440000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11105000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10113000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9859000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9802000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10041000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9340000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8599000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8587000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8730000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8252000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7801000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10811000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7839000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6999000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29441000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27982000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26564000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32667000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24844000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22779000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22695000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26265000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23237000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22832000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22450000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22473000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19926000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19411000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18913000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20360000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17495000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21394000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18860000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19161000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6692000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7495000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7522000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7529000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8171000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8227000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5643000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5495000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5124000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4799000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4794000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6480000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6487000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6492000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6505000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6478000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6573000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2821000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2815000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3933000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5057000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4823000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4703000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4712000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3836000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3523000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3445000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3447000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1455000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1301000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1372000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1382000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1314000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1232000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1184000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1231000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1243000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1207000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41704000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40792000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39266000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45357000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37272000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34930000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35570000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30157000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29266000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28941000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30647000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28031000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27462000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26949000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28300000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25569000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25733000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23190000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24559000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11666000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10466000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9766000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9232000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12879000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11883000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11384000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10787000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10258000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9496000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8916000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8387000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7887000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7176000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6727000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6300000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5988000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5508000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8140000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7882000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17564000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16482000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15652000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14860000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18284000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16802000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16614000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15861000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15243000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14486000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13858000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13167000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12799000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12143000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11754000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11078000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10778000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9898000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12440000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11973000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44437</v>
+      </c>
+      <c r="E80" s="2">
         <v>44325</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44241</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44157</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44073</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43961</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43877</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43793</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43709</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43597</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43513</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43429</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43345</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43233</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43149</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43065</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42981</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42862</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42778</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42694</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1220000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>951000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1166000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1389000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>838000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>931000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>844000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1097000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>906000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>889000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>767000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1043000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>750000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>701000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>640000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>919000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>515000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>545000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E83" s="3">
         <v>402000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>416000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>404000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>505000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>382000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>389000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>369000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>473000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>336000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>352000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>331000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>431000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>327000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>344000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>335000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>441000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>320000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>312000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>297000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3333000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2647000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4242000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1898000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>619000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2102000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2293000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2105000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-219000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2177000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1554000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2006000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1834000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1606000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>493000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2793000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1094000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-573000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-893000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-852000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-698000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-545000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-715000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-672000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-587000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-730000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-585000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-508000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-820000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-779000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-540000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-516000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-667000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1155000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-355000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-682000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-941000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-470000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-630000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-920000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-774000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-434000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-737000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-694000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-373000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-785000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-816000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-498000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-397000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-655000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-698000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-310000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-310000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-619000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-287000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-573000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-286000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-251000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-501000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-250000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-219000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-220000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-198000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-198000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-719000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-419000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2999000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-836000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-397000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-267000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-690000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-165000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-660000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>68000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1000</v>
       </c>
       <c r="L101" s="3">
         <v>-1000</v>
       </c>
       <c r="M101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>67000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-52000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1589000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1313000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1451000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3040000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>643000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1371000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>933000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-698000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>723000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>178000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1096000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-908000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1143000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-206000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-61000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1426000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44605</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44521</v>
+      </c>
+      <c r="F7" s="2">
         <v>44437</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44325</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44241</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44157</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44073</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43961</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43877</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43793</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43709</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43597</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43513</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43429</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43345</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43233</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43149</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43065</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42981</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42862</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42778</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42694</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51904000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50363000</v>
+      </c>
+      <c r="F8" s="3">
         <v>62675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>45277000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>44769000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>43208000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>53383000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>37266000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>39072000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>37040000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>47498000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>34740000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>35396000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>35069000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>44411000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>32361000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>32995000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>31809000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>42300000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>28860000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>29766000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>28099000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45517000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43952000</v>
+      </c>
+      <c r="F9" s="3">
         <v>54733000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>39415000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>39078000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>37458000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>46337000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>32205000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34056000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>32233000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>41310000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>30233000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>30720000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>30623000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>38671000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>28131000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>28733000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>27617000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>36697000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>24970000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>25927000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>24288000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6387000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6411000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7942000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5862000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5691000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5750000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7046000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5061000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5016000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4807000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6188000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4507000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4676000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4446000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5740000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4230000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4262000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4192000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5603000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>3890000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>3839000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>3811000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,34 +1160,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F14" s="3">
         <v>84000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>57000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>246000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>212000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>370000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>302000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1168,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,23 +1257,23 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>16000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4000</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1242,11 +1287,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50092000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>48670000</v>
+      </c>
+      <c r="F17" s="3">
         <v>60400000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43614000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>43429000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>41778000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>51454000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>36087000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>37806000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>35979000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>46035000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>33618000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>34193000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>34120000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>42965000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>31294000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>31979000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>30858000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>40850000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>27892000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>28922000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>27250000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1693000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2275000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1663000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1340000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1430000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1929000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1179000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1266000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1061000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1463000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1122000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1203000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>949000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1446000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1067000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1016000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>951000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1450000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>968000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>844000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>849000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F20" s="3">
         <v>68000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>74000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>46000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>51000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>41000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>22000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>22000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>18000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2902000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2092000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1775000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1863000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2425000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1582000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1700000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1465000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2010000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1494000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1601000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1302000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1928000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1435000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1367000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1308000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1913000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1306000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1152000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1172000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>39000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>45000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>35000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>36000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>37000</v>
       </c>
       <c r="S22" s="3">
         <v>37000</v>
       </c>
       <c r="T22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="U22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="V22" s="3">
         <v>53000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>21000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>31000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>29000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2291000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1650000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1319000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1420000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1869000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1163000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1277000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1058000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1492000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1123000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1215000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>935000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1071000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>986000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>936000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1419000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>965000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>809000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>846000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>351000</v>
+      </c>
+      <c r="F24" s="3">
         <v>597000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>417000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>348000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>239000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>465000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>311000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>330000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>202000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>340000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>280000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>377000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>185000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>402000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>310000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>247000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>285000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>487000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>259000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>288000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>291000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1694000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1233000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>971000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1181000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1404000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>852000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>947000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>856000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1152000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>843000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>838000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>750000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1047000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>761000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>739000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>651000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>932000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>706000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>521000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>555000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1670000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1220000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>951000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1166000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1389000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>838000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>931000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>844000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1139000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>833000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>826000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>740000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1037000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>749000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>727000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>640000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>919000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>700000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>515000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>545000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,44 +2198,44 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-42000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>73000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>63000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>27000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>6000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-68000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-74000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-46000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-41000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-22000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-22000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-18000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1670000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1220000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>951000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1166000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1389000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>838000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>931000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>844000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1097000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>906000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>889000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>767000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>750000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>701000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>640000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>919000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>700000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>515000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>545000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1670000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1220000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>951000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1166000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1389000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>838000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>931000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>844000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1097000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>906000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>889000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>767000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>750000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>701000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>640000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>919000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>700000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>515000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>545000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44605</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44521</v>
+      </c>
+      <c r="F38" s="2">
         <v>44437</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44325</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44241</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44157</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44073</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43961</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43877</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43793</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43709</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43597</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43513</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43429</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43345</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43233</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43149</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43065</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42981</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42862</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42778</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42694</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,416 +2832,454 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11819000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12751000</v>
+      </c>
+      <c r="F41" s="3">
         <v>11258000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10226000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8637000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13590000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12277000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10826000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7786000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9027000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8384000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7013000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6080000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6778000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6055000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5877000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4781000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5689000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4546000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4538000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4744000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4805000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>725000</v>
+      </c>
+      <c r="F42" s="3">
         <v>917000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>900000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>617000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>833000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1028000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>948000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>929000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>993000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1060000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1154000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1042000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1175000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1204000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1167000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1049000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1196000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1233000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1187000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1221000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1311000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2232000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1803000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1595000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1934000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1646000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1550000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1507000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1988000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1711000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1535000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1704000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1995000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1795000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1669000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1593000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2001000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1559000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1432000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1462000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1597000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1498000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16485000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16942000</v>
+      </c>
+      <c r="F44" s="3">
         <v>14215000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>13975000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13865000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>14901000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>12242000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>11010000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>11850000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13818000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>11395000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>11304000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11356000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>12205000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>11040000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>10626000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10671000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>11213000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>9834000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>9736000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>9530000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>10721000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1552000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1312000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1220000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1255000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1126000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1023000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>963000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1150000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1094000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1111000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1110000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1175000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1001000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>321000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>430000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>397000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>240000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>272000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>333000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>368000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>235000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32565000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>33850000</v>
+      </c>
+      <c r="F46" s="3">
         <v>29505000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27916000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>26308000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>32096000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>28120000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>25254000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>23703000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26643000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>23485000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22285000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21648000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>22954000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20289000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>19693000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18899000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>19897000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17317000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>17256000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>17460000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>18570000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,102 +3346,114 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26892000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>26790000</v>
+      </c>
+      <c r="F48" s="3">
         <v>26382000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26052000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>25418000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>25073000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>25187000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>24276000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24077000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23834000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20890000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20475000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>20145000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19879000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19681000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19178000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19049000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18682000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>18161000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>17535000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>17342000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>17156000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>1290000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1234000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1235000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1217000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1271000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -3246,11 +3467,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3621000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3509000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2091000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2072000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1957000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1831000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>978000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>960000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1002000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>954000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1025000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>992000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1006000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>981000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>860000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>734000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>755000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>799000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>869000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>840000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>828000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>806000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63078000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>64149000</v>
+      </c>
+      <c r="F54" s="3">
         <v>59268000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>57274000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>54918000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60217000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>55556000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>51732000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>48782000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>51431000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>45400000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>43752000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>42799000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>43814000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>40830000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>39605000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>38703000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>39378000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>36347000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>35631000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>35630000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>36532000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17089000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19561000</v>
+      </c>
+      <c r="F57" s="3">
         <v>16278000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>15538000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>14383000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17014000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>14172000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10813000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11072000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14440000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11679000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11331000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10711000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13133000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11237000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10705000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10061000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11992000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>9608000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9425000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8764000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>11003000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>799000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="G58" s="3">
         <v>92000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>95000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>96000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>126000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1526000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>518000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1712000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1699000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1699000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1698000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>90000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>119000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>122000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>116000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>86000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1158000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2257000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1159000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14456000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12982000</v>
+      </c>
+      <c r="F59" s="3">
         <v>12364000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12352000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12086000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15557000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10546000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10440000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11105000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10113000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9859000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9802000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10041000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9340000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8599000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>8587000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8730000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8252000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7801000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10811000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7839000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6999000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31545000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33342000</v>
+      </c>
+      <c r="F60" s="3">
         <v>29441000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>27982000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>26564000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>32667000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>24844000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>22779000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22695000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26265000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23237000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>22832000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22450000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>22473000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19926000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>19411000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>18913000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>20360000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>17495000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>21394000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>18860000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>19161000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6658000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6667000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6692000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7495000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7522000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7529000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8171000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8227000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5643000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5495000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5124000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4799000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4794000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6480000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6487000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6492000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6505000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6478000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6573000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2821000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2815000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3933000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4899000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5140000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5057000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4823000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4703000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4712000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3836000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3523000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3445000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3447000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1455000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1301000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1372000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1382000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1314000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1255000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1232000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1184000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1200000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1231000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1243000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1207000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43660000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45686000</v>
+      </c>
+      <c r="F66" s="3">
         <v>41704000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>40792000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>39266000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45357000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>37272000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>32168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>35570000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30157000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>29266000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>28941000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>30647000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>28031000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>27462000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>26949000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>28300000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>25569000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>25733000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>23190000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>24559000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13474000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12606000</v>
+      </c>
+      <c r="F72" s="3">
         <v>11666000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10466000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9766000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9232000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12879000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>11883000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11384000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10787000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>10258000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9496000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8916000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8387000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7887000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>7176000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>6727000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6300000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5988000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5508000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>8140000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>7882000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19418000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18463000</v>
+      </c>
+      <c r="F76" s="3">
         <v>17564000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16482000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15652000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14860000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>18284000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16802000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16614000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15861000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15243000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14486000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13858000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13167000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12799000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12143000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11754000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11078000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10778000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9898000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12440000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11973000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44605</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44521</v>
+      </c>
+      <c r="F80" s="2">
         <v>44437</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44325</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44241</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44157</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44073</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43961</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43877</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43793</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43709</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43597</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43513</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43429</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43345</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43233</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43149</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43065</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42981</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42862</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42778</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42694</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1670000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1220000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>951000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1166000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1389000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>838000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>931000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>844000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1097000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>906000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>889000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>767000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>750000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>701000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>640000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>919000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>700000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>515000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>545000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F83" s="3">
         <v>559000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>402000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>416000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>404000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>505000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>382000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>389000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>369000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>473000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>336000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>352000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>331000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>431000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>327000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>344000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>335000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>441000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>320000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>312000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>297000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3258000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2940000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3333000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2647000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4242000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1898000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>619000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2102000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2293000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2105000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-219000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2177000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2105000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>109000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2006000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1834000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1606000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>493000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2793000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-723000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1055000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-573000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-893000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-852000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-698000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-545000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-715000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-672000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-587000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-730000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-585000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-508000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-820000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-779000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-540000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-516000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-667000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-481000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-912000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-355000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-682000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-941000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-470000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-630000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-920000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-774000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-434000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-737000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-694000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-373000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-785000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-816000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-498000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-397000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-655000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-698000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-310000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-4430000</v>
       </c>
       <c r="G96" s="3">
         <v>-310000</v>
       </c>
       <c r="H96" s="3">
+        <v>-4430000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-619000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-287000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-573000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-286000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-251000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-501000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-219000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-220000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3508000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-198000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-198000</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-828000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-839000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-719000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-419000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-700000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2999000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-836000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-397000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-49000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-700000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-266000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-690000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-58000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-165000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-660000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>68000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-49000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>67000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-52000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-932000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1032000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1589000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1313000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1451000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3040000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>643000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1371000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>933000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-698000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>723000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>178000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1096000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-908000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1143000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-206000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-61000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1426000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,345 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44689</v>
+      </c>
+      <c r="E7" s="2">
         <v>44605</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44521</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44437</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44325</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44241</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44157</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44073</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43961</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43877</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43793</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43709</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43597</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43513</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43429</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43345</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43233</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43149</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43065</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42981</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42862</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42778</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42694</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52596000</v>
+      </c>
+      <c r="E8" s="3">
         <v>51904000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50363000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62675000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45277000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44769000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43208000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>53383000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37266000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39072000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37040000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47498000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34740000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35396000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35069000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44411000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32361000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32995000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31809000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>42300000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28860000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29766000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>28099000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46355000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45517000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43952000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54733000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39415000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39078000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37458000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46337000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32205000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34056000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32233000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41310000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30233000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30720000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30623000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38671000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28131000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28733000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27617000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36697000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>24970000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>25927000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>24288000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6241000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6387000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6411000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7942000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5862000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5691000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5750000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7046000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5061000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5016000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4807000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6188000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4507000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4676000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4446000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5740000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4230000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4262000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4192000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5603000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3890000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3839000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3811000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,37 +1182,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>118000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>84000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="I14" s="3">
         <v>246000</v>
       </c>
-      <c r="E14" s="3">
-        <v>330000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>84000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>57000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>246000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>212000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>370000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>302000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1232,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1240,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,20 +1285,20 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>16000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4000</v>
       </c>
       <c r="M15" s="3">
         <v>4000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>4000</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1293,8 +1315,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1314,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50805000</v>
+      </c>
+      <c r="E17" s="3">
         <v>50092000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48670000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>60400000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43614000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43429000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41778000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>51454000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36087000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37806000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35979000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46035000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33618000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34193000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34120000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42965000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31294000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31979000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30858000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40850000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>27892000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>28922000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>27250000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1812000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1693000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2275000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1663000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1340000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1430000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1929000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1179000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1266000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1061000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1463000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1122000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1203000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>949000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1446000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1067000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1016000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>951000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1450000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>968000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>844000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>849000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,206 +1547,213 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>25000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>68000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>45000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>74000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>46000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>51000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>41000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>22000</v>
       </c>
       <c r="V20" s="3">
         <v>22000</v>
       </c>
       <c r="W20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="X20" s="3">
         <v>18000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>26000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2273000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2167000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2902000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2092000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1775000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1863000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2425000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1582000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1700000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1465000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2010000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1494000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1601000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1302000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1928000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1435000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1367000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1308000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1913000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1306000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1152000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1172000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>40000</v>
       </c>
       <c r="H22" s="3">
         <v>40000</v>
       </c>
       <c r="I22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>36000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>37000</v>
       </c>
       <c r="T22" s="3">
         <v>37000</v>
@@ -1723,170 +1762,179 @@
         <v>37000</v>
       </c>
       <c r="V22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="W22" s="3">
         <v>53000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>21000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>31000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>29000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1801000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1696000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2291000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1650000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1319000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1420000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1869000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1163000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1277000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1058000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1492000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1123000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1215000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>935000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1449000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1071000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>986000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>936000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1419000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>965000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>809000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>846000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E24" s="3">
         <v>481000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>351000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>597000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>417000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>348000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>239000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>465000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>311000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>330000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>202000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>340000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>280000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>377000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>185000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>402000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>310000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>247000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>285000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>487000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>259000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>288000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>291000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1320000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1345000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1694000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1233000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>971000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1181000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1404000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>852000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>947000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>856000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>843000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>838000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>750000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1047000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>761000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>739000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>651000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>932000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>706000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>521000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>555000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1299000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1324000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1670000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1220000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>951000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1166000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1389000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>838000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>931000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>844000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1139000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>833000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>826000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>740000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1037000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>727000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>640000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>919000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>515000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>545000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2204,11 +2264,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2216,29 +2276,29 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-42000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>73000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>63000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>27000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-68000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-45000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-74000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-51000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-41000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-22000</v>
       </c>
       <c r="V32" s="3">
         <v>-22000</v>
       </c>
       <c r="W32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-18000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1299000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1324000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1670000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1220000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>951000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1166000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1389000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>838000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>931000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>844000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1097000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>906000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>889000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>767000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1043000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>750000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>701000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>640000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>919000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>515000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>545000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1299000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1324000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1670000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1220000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>951000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1166000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1389000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>838000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>931000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>844000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1097000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>906000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>889000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>767000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1043000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>750000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>701000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>640000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>919000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>515000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>545000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44689</v>
+      </c>
+      <c r="E38" s="2">
         <v>44605</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44521</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44437</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44325</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44241</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44157</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44073</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43961</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43877</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43793</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43709</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43597</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43513</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43429</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43345</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43233</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43149</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43065</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42981</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42862</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42778</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42694</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,452 +2919,471 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11193000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11819000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12751000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11258000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10226000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8637000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13590000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12277000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10826000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7786000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9027000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8384000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7013000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6080000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6778000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6055000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5877000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4781000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5689000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4546000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4538000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4744000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4805000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E42" s="3">
         <v>477000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>725000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>917000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>900000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>617000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>833000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1028000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>948000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>929000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>993000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1060000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1154000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1175000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1204000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1167000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1049000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1196000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1233000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1187000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1221000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1311000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2232000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1932000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1803000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1595000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1934000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1646000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1550000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1507000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1988000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1711000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1535000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1704000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1995000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1795000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1669000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1593000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2001000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1559000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1432000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1462000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1597000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1498000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17623000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16485000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16942000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14215000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13975000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13865000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14901000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12242000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11010000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11850000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13818000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11395000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11304000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11356000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12205000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11040000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10626000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10671000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11213000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9834000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9736000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9530000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>10721000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1552000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1312000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1220000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1255000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1126000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1023000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>963000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1150000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1094000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1111000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1110000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1175000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1001000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>321000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>430000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>397000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>240000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>272000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>333000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>368000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>235000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33008000</v>
+      </c>
+      <c r="E46" s="3">
         <v>32565000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33850000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29505000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27916000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26308000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32096000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28120000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25254000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23703000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26643000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23485000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22285000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21648000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22954000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20289000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19693000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18899000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19897000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17317000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17256000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17460000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18570000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,82 +3456,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26874000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26892000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26790000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26382000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26052000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25418000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25073000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25187000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24276000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24077000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23834000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20890000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20475000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20145000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19879000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19681000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19178000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19049000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18682000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18161000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17535000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17342000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17156000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3437,26 +3547,26 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>1290000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1234000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1235000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1217000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1271000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3473,8 +3583,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3500,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3621000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3509000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2091000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2072000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1957000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1831000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>978000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>960000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1002000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>954000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1025000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>992000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>981000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>860000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>734000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>755000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>799000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>869000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>840000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>828000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>806000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63852000</v>
+      </c>
+      <c r="E54" s="3">
         <v>63078000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64149000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59268000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57274000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54918000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60217000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55556000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51732000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48782000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51431000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45400000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43752000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42799000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43814000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40830000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39605000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38703000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39378000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36347000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35631000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35630000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>36532000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17651000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17089000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19561000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16278000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15538000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14383000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17014000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14172000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10813000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11072000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14440000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11679000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11331000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10711000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13133000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11237000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10705000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10061000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11992000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9608000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9425000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8764000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11003000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="E58" s="3">
-        <v>799000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>799000</v>
       </c>
       <c r="G58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="H58" s="3">
         <v>92000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>95000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>96000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>126000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1526000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>518000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1699000</v>
       </c>
       <c r="O58" s="3">
         <v>1699000</v>
       </c>
       <c r="P58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1698000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>90000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>119000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>122000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>116000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>86000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1158000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2257000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1159000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14117000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14456000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12982000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12364000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12352000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12086000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15557000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10546000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10440000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11105000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10113000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9859000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9802000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10041000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9340000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8599000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8587000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8730000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8252000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7801000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10811000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7839000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6999000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31845000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31545000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33342000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29441000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27982000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26564000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32667000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24844000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22779000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22695000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26265000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23237000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22832000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22450000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22473000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19926000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19411000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18913000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20360000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17495000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21394000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18860000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19161000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6507000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6658000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6667000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6692000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7495000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7522000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7529000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8171000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8227000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5643000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5495000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5124000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4799000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4794000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6480000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6487000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6492000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6505000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6478000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6573000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2821000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2815000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3933000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4987000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4899000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5140000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5057000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4823000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4703000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4712000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3836000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3523000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3445000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3447000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1455000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1301000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1372000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1382000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1314000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1255000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1232000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1184000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1200000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1231000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1243000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1207000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43884000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43660000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45686000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41704000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40792000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39266000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45357000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37272000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34930000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32168000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35570000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30157000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29266000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28941000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30647000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28031000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27462000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26949000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28300000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25569000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25733000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23190000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24559000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14294000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13474000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12606000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11666000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10466000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9766000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9232000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12879000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11883000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11384000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10787000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10258000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9496000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8916000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8387000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7887000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7176000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6727000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6300000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5988000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5508000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8140000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7882000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19968000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19418000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18463000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17564000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16482000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15652000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14860000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18284000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16802000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16614000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15861000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15243000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14486000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13858000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13167000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12799000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12143000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11754000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11078000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10778000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9898000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12440000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11973000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44689</v>
+      </c>
+      <c r="E80" s="2">
         <v>44605</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44521</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44437</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44325</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44241</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44157</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44073</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43961</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43877</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43793</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43709</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43597</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43513</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43429</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43345</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43233</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43149</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43065</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42981</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42862</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42778</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42694</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1299000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1324000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1670000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1220000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>951000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1166000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1389000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>838000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>931000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>844000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1097000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>906000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>889000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>767000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1043000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>750000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>701000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>640000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>919000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>515000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>545000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E83" s="3">
         <v>436000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>432000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>559000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>402000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>416000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>404000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>505000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>382000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>389000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>369000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>473000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>336000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>352000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>331000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>431000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>327000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>344000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>335000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>441000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>320000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>312000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>297000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="E89" s="3">
         <v>401000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3258000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2940000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3333000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2647000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4242000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1898000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>619000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2102000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2293000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2105000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-219000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2177000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1554000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2105000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2006000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1834000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1606000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>493000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2793000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-854000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-723000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1055000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-573000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-893000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-852000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-698000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-545000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-715000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-672000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-587000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-730000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-585000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-508000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-820000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-779000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-540000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-667000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1035000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-481000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-912000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-355000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-682000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-941000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-470000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-630000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-920000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-774000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-434000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-737000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-694000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-373000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-785000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-816000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-498000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-397000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-655000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6717,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-351000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-350000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-698000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-310000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-310000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-619000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-287000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-573000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-286000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-251000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-501000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-250000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-219000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-220000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-198000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-198000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-676000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-828000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-839000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-719000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-419000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2999000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-836000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-397000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-267000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-266000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-690000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-58000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-165000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-660000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>68000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1000</v>
       </c>
       <c r="O101" s="3">
         <v>-1000</v>
       </c>
       <c r="P101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-49000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>67000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-932000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1493000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1032000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1589000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1313000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1451000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3040000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>643000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1371000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>933000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-698000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>723000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>178000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1096000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-908000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1143000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-206000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-61000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1426000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E7" s="2">
         <v>44689</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44605</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44521</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44437</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44325</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44241</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44157</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44073</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43961</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43877</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43793</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43709</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43597</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43513</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43429</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43345</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43233</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43149</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43065</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42981</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42862</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42778</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42694</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72091000</v>
+      </c>
+      <c r="E8" s="3">
         <v>52596000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51904000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50363000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>62675000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45277000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44769000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43208000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53383000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37266000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39072000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37040000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47498000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34740000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35396000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35069000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44411000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32361000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32995000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31809000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>42300000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28860000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29766000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>28099000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63558000</v>
+      </c>
+      <c r="E9" s="3">
         <v>46355000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45517000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43952000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54733000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39415000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39078000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37458000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46337000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32205000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34056000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32233000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41310000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30233000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30720000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30623000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38671000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28131000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28733000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27617000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36697000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>24970000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>25927000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>24288000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8533000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6241000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6387000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6411000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7942000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5862000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5691000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5750000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7046000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5061000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5016000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4807000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6188000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4507000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4676000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4446000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5740000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4230000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4262000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4192000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5603000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3890000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3839000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3811000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,28 +1217,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>118000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>84000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>57000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>246000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>212000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>370000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>302000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1235,8 +1255,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1262,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,20 +1311,20 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>16000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4000</v>
       </c>
       <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>4000</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1318,8 +1341,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69594000</v>
+      </c>
+      <c r="E17" s="3">
         <v>50805000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50092000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48670000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>60400000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43614000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43429000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41778000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51454000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36087000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37806000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35979000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46035000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33618000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34193000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34120000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42965000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31294000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>31979000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30858000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>40850000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>27892000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>28922000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>27250000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2497000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1791000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1812000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1693000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2275000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1663000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1340000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1430000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1929000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1179000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1266000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1061000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1463000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1122000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1203000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>949000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1446000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1067000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1016000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>951000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1450000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>968000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>844000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>849000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,215 +1581,222 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E20" s="3">
         <v>71000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>68000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>45000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>74000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>46000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>51000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>41000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>22000</v>
       </c>
       <c r="W20" s="3">
         <v>22000</v>
       </c>
       <c r="X20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>18000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>26000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2273000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2167000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2902000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2092000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1775000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1863000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2425000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1582000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1465000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2010000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1601000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1302000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1928000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1435000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1367000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1308000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1913000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1306000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1152000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1172000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>35000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>40000</v>
       </c>
       <c r="I22" s="3">
         <v>40000</v>
       </c>
       <c r="J22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>36000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>48000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>37000</v>
       </c>
       <c r="U22" s="3">
         <v>37000</v>
@@ -1765,176 +1805,185 @@
         <v>37000</v>
       </c>
       <c r="W22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="X22" s="3">
         <v>53000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>21000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>31000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>29000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2516000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1827000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1801000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1696000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2291000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1650000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1319000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1420000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1869000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1163000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1277000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1058000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1492000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1123000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1215000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>935000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1449000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1071000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>986000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>936000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1419000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>965000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>809000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>846000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E24" s="3">
         <v>455000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>481000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>351000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>597000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>417000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>348000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>239000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>465000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>311000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>330000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>202000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>340000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>280000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>377000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>185000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>402000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>310000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>247000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>285000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>487000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>259000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>288000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>291000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1372000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1320000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1345000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1694000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1233000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>971000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1181000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1404000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>852000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>947000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>856000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>843000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>838000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>750000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1047000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>761000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>739000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>651000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>932000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>706000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>521000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>555000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1353000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1299000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1324000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1670000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1220000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>951000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1166000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1389000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>838000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>931000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>844000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1139000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>833000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>826000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>740000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1037000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>749000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>727000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>640000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>919000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>515000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>545000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2267,11 +2328,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2279,29 +2340,29 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-42000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>73000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>63000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>27000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-71000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-68000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-45000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-74000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-46000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-51000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-41000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-22000</v>
       </c>
       <c r="W32" s="3">
         <v>-22000</v>
       </c>
       <c r="X32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1353000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1299000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1324000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1670000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1220000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>951000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1166000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1389000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>838000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>931000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>844000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1097000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>906000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>889000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>767000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1043000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>750000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>701000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>640000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>919000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>515000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>545000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1353000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1299000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1324000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1670000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1220000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>951000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1166000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1389000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>838000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>931000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>844000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1097000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>906000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>889000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>767000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1043000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>750000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>701000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>640000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>919000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>515000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>545000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E38" s="2">
         <v>44689</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44605</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44521</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44437</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44325</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44241</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44157</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44073</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43961</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43877</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43793</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43709</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43597</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43513</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43429</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43345</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43233</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43149</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43065</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42981</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42862</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42778</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42694</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,470 +3006,489 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10203000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11193000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11819000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12751000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11258000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10226000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8637000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13590000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12277000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10826000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7786000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9027000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8384000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6080000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6778000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6055000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5877000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4781000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5689000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4546000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4538000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4744000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4805000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E42" s="3">
         <v>638000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>477000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>725000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>917000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>900000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>617000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>833000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1028000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>948000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>929000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>993000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1060000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1154000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1042000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1175000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1204000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1167000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1049000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1196000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1233000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1187000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1221000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1311000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1991000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2232000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1932000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1803000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1595000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1934000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1646000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1550000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1507000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1988000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1711000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1535000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1704000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1995000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1795000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1669000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1593000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2001000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1559000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1432000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1462000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1597000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1498000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17907000</v>
+      </c>
+      <c r="E44" s="3">
         <v>17623000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16485000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16942000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14215000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13975000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13865000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14901000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12242000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11010000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11850000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13818000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11395000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11304000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11356000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12205000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11040000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10626000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10671000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11213000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9834000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9736000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9530000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>10721000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1563000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1552000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1312000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1220000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1255000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1126000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1023000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>963000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1150000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1094000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1111000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1175000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1001000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>321000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>430000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>397000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>240000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>272000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>333000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>368000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>235000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32696000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33008000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32565000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33850000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29505000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27916000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26308000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32096000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28120000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25254000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23703000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26643000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23485000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22285000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21648000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22954000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20289000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19693000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18899000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19897000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17317000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17256000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17460000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18570000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,85 +3564,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27420000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26874000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26892000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26790000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26382000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26052000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25418000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25073000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25187000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24276000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24077000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23834000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20890000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20475000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20145000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19879000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19681000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19178000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19049000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18682000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18161000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17535000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17342000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17156000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3550,26 +3661,26 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>1290000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1234000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1235000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1217000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1271000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3586,8 +3697,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4050000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3970000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3621000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3509000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2091000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2072000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1957000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1831000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>978000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>960000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1002000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>954000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1025000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>992000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1006000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>981000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>860000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>734000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>755000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>799000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>869000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>840000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>828000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>806000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64166000</v>
+      </c>
+      <c r="E54" s="3">
         <v>63852000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63078000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64149000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59268000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57274000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54918000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55556000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51732000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48782000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51431000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45400000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43752000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42799000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43814000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40830000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39605000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38703000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39378000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36347000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35631000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35630000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36532000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4186,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17848000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17651000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17089000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19561000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16278000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15538000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14383000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17014000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14172000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10813000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11072000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14440000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11679000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11331000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10711000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13133000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11237000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10705000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10061000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11992000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9608000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9425000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8764000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11003000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E58" s="3">
         <v>77000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>799000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>799000</v>
       </c>
       <c r="H58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="I58" s="3">
         <v>92000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>95000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>96000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1526000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>518000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1699000</v>
       </c>
       <c r="P58" s="3">
         <v>1699000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="R58" s="3">
         <v>1698000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>90000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>119000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>122000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>116000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>86000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1158000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2257000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1159000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14077000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14117000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14456000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12982000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12364000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12352000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12086000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15557000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10546000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10440000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11105000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10113000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9859000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9802000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10041000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9340000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8599000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8587000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8730000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8252000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7801000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10811000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7839000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6999000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31998000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31845000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31545000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33342000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29441000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27982000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26564000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32667000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24844000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22779000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22695000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26265000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23237000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22832000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22450000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22473000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19926000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19411000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18913000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20360000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17495000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21394000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18860000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19161000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6484000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6507000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6658000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6667000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6692000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7495000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7522000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7529000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8171000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8227000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5643000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5495000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5124000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4799000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4794000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6480000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6487000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6492000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6505000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6478000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6573000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2821000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2815000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3933000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5037000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4987000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4899000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5140000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5057000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4823000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4703000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4712000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3836000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3523000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3445000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3447000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1455000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1301000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1372000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1382000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1314000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1255000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1232000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1184000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1200000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1231000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1243000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1207000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43524000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43884000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43660000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45686000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41704000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40792000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39266000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45357000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37272000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34930000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32168000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35570000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30157000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29266000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28941000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30647000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28031000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27462000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26949000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28300000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>25569000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25733000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>23190000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24559000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15585000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14294000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13474000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12606000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11666000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10466000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9766000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9232000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12879000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11883000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11384000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10787000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10258000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9496000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8916000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8387000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7887000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7176000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6727000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6300000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5988000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5508000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8140000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7882000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20642000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19968000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19418000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18463000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17564000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16482000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15652000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14860000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18284000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16802000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16614000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15861000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15243000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14486000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13858000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13167000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12799000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12143000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11754000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11078000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10778000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9898000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12440000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11973000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44801</v>
+      </c>
+      <c r="E80" s="2">
         <v>44689</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44605</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44521</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44437</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44325</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44241</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44157</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44073</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43961</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43877</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43793</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43709</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43597</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43513</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43429</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43345</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43233</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43149</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43065</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42981</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42862</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42778</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42694</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1353000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1299000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1324000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1670000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1220000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>951000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1166000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1389000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>838000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>931000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>844000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1097000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>906000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>889000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>767000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1043000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>750000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>701000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>640000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>919000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>515000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>545000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6011,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E83" s="3">
         <v>438000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>436000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>432000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>559000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>402000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>416000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>404000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>505000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>382000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>389000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>369000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>473000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>336000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>352000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>331000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>431000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>327000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>344000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>335000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>441000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>320000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>312000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>297000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1227000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>401000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3258000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2940000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3333000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2647000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4242000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1898000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>619000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2102000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2293000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2105000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-219000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2177000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1554000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2105000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2006000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1834000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1606000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>493000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2793000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1259000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-854000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-723000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1055000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-573000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-893000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-852000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-698000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-545000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-715000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-672000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-587000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-730000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-585000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-508000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-820000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-779000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-540000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-516000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-667000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1487000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-481000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-912000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-355000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-682000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-941000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-470000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-630000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-920000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-774000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-434000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-737000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-694000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-373000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-785000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-816000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-498000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-397000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-655000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,85 +6951,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-797000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-351000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-350000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-698000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-310000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-310000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-619000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-287000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-573000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-286000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-501000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-250000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-219000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-220000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-198000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-198000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7269,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1940000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-676000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-828000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-839000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-719000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-419000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2999000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-836000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-397000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-267000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-266000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-690000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-58000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-165000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-660000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-142000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-34000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>18000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>68000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1000</v>
       </c>
       <c r="P101" s="3">
         <v>-1000</v>
       </c>
       <c r="Q101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-49000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>46000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-20000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>67000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-990000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-626000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-932000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1493000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1032000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1589000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1313000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1451000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3040000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>643000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1371000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>933000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-698000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>723000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>178000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1096000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-908000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1143000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-61000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1426000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,383 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44969</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44885</v>
+      </c>
+      <c r="F7" s="2">
         <v>44801</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44689</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44605</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44521</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44437</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44325</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44241</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44157</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44073</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43961</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43877</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43793</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43709</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43597</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43513</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43429</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43345</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43233</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43149</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43065</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42981</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42862</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42778</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42694</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55266000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>54437000</v>
+      </c>
+      <c r="F8" s="3">
         <v>72091000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>52596000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>51904000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>50363000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>62675000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>45277000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>44769000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>43208000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>53383000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>37266000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>39072000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>37040000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47498000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>34740000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>35396000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>35069000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>44411000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>32361000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>32995000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>31809000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>42300000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>28860000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>29766000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>28099000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48423000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>47769000</v>
+      </c>
+      <c r="F9" s="3">
         <v>63558000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>46355000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>45517000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>43952000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>54733000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39415000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39078000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>37458000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>46337000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>32205000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>34056000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>32233000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>41310000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30233000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>30720000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>30623000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>38671000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>28131000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>28733000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>27617000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>36697000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>24970000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>25927000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>24288000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6843000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8533000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6241000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>6387000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6411000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7942000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5862000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5691000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5750000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7046000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5061000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5016000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4807000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6188000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4507000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4676000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4446000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5740000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4230000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4262000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4192000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5603000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>3890000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>3839000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>3811000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1070,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1152,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,46 +1238,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>118000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>84000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>57000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>246000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>212000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>370000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>302000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1258,11 +1297,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1285,8 +1324,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,23 +1359,23 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>16000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4000</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1344,11 +1389,11 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1365,8 +1410,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1443,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53363000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52686000</v>
+      </c>
+      <c r="F17" s="3">
         <v>69594000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>50805000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>50092000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>48670000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>60400000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>43614000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>43429000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41778000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>51454000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>36087000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>37806000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>35979000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>46035000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>33618000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>34193000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>34120000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>42965000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>31294000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>31979000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>30858000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>40850000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>27892000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>28922000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>27250000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2497000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1791000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1812000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1693000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2275000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1663000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1340000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1430000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1929000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1179000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1266000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1061000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1463000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1122000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1203000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>949000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1446000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1067000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1016000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>951000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1450000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>968000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>844000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>849000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,408 +1647,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F20" s="3">
         <v>67000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>71000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>42000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>68000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>45000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>74000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>46000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>22000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>51000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>41000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>22000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>22000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>18000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>26000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3158000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2300000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2273000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2167000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2902000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2092000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1775000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1863000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2425000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1582000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1700000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1465000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2010000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1494000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1601000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1302000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1928000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1435000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1367000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1308000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1913000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1306000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1152000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1172000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>35000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>39000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>39000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>37000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>34000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>38000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>35000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>34000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>36000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>48000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>37000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>37000</v>
       </c>
       <c r="W22" s="3">
         <v>37000</v>
       </c>
       <c r="X22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>53000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>21000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>31000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>29000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1983000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2516000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1827000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1801000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1696000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2291000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1650000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1319000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1420000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1869000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1163000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1277000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1058000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1123000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1215000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>935000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1449000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1071000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>986000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>936000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1419000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>965000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>809000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>846000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>406000</v>
+      </c>
+      <c r="F24" s="3">
         <v>638000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>455000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>481000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>351000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>597000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>417000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>348000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>239000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>465000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>311000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>330000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>202000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>340000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>280000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>377000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>185000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>402000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>310000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>247000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>285000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>487000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>259000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>288000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>291000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2159,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1878000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1372000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1320000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1345000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1694000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1233000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>971000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1181000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1404000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>852000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>947000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>856000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>843000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>838000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>750000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1047000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>761000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>739000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>651000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>932000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>706000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>521000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>555000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1868000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1353000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1299000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1324000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1670000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1220000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>951000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1166000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1389000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>838000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>931000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>844000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1139000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>833000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>826000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>740000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1037000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>749000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>727000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>640000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>919000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>700000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>515000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>545000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,73 +2417,79 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>73000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>63000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>27000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>6000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2382,8 +2503,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2589,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,168 +2675,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-67000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-71000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-25000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-42000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-68000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-45000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-46000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-22000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-51000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-41000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-22000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>4000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1868000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1353000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1299000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1324000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1670000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1220000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>951000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1166000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1389000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>838000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>931000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>844000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>906000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>889000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>767000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1043000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>750000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>701000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>640000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>919000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>700000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>515000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>545000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2933,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1868000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1353000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1299000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1324000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1670000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1220000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>951000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1166000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1389000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>838000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>931000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>844000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>906000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>889000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>767000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1043000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>750000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>701000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>640000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>919000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>700000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>515000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>545000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44969</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44885</v>
+      </c>
+      <c r="F38" s="2">
         <v>44801</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44689</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44605</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44521</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44437</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44325</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44241</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44157</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44073</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43961</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43877</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43793</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43709</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43597</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43513</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43429</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43345</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43233</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43149</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43065</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42981</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42862</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42778</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42694</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3146,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,488 +3178,526 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12970000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10856000</v>
+      </c>
+      <c r="F41" s="3">
         <v>10203000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11193000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11819000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12751000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11258000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10226000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8637000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13590000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12277000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10826000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7786000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9027000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8384000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7013000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6080000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6778000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6055000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5877000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4781000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5689000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4546000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4538000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4744000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>4805000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>817000</v>
+      </c>
+      <c r="F42" s="3">
         <v>846000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>638000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>477000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>725000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>917000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>900000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>617000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>833000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1028000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>948000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>929000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>993000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1154000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1042000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1175000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1204000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1167000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1049000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1196000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1233000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1187000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1221000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1311000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2714000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2241000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1991000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2232000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1932000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1803000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1595000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1934000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1646000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1550000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1507000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1988000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1711000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1704000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1995000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1795000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1669000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1593000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2001000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1559000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1432000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1462000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1597000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1498000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16081000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18571000</v>
+      </c>
+      <c r="F44" s="3">
         <v>17907000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>17623000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>16485000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>16942000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14215000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13975000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13865000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14901000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>12242000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>11010000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>11850000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>13818000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>11395000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>11304000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>11356000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>12205000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>11040000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>10626000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>10671000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>11213000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>9834000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>9736000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>9530000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>10721000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1830000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1594000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1499000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1563000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1552000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1312000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1220000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1255000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1126000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1023000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>963000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1150000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1094000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1111000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1110000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1175000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1001000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>321000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>430000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>397000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>240000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>272000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>333000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>368000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>235000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34330000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>34150000</v>
+      </c>
+      <c r="F46" s="3">
         <v>32696000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>33008000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>32565000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>33850000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29505000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>27916000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>26308000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>32096000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28120000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>25254000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>23703000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26643000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>23485000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>22285000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>21648000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>22954000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>20289000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>19693000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>18899000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>19897000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>17317000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>17256000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>17460000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>18570000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,88 +3776,100 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28583000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27931000</v>
+      </c>
+      <c r="F48" s="3">
         <v>27420000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26874000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>26892000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>26790000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>26382000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>26052000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>25418000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25073000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>25187000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24276000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>24077000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23834000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20890000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>20475000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>20145000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>19879000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19681000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>19178000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>19049000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>18682000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>18161000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>17535000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>17342000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>17156000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3664,29 +3885,29 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>1290000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1234000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1235000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1217000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1271000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -3700,11 +3921,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3727,8 +3948,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +4034,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4120,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3935000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4050000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3970000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3621000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3509000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2091000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2072000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1957000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1831000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>978000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>960000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1002000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>954000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1025000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>992000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1006000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>981000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>860000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>734000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>755000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>799000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>869000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>840000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>828000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>806000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4292,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66848000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>66027000</v>
+      </c>
+      <c r="F54" s="3">
         <v>64166000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>63852000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>63078000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>64149000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>59268000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>57274000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54918000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>60217000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55556000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>51732000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>48782000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>51431000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>45400000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>43752000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>42799000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>43814000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>40830000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>39605000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>38703000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>39378000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>36347000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>35631000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>35630000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>36532000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4414,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,488 +4446,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16407000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18348000</v>
+      </c>
+      <c r="F57" s="3">
         <v>17848000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17651000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>17089000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>19561000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16278000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>15538000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14383000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17014000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14172000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10813000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11072000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14440000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11679000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>11331000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10711000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>13133000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11237000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>10705000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>10061000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>11992000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>9608000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>9425000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>8764000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>11003000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F58" s="3">
         <v>73000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>77000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>799000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>799000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>92000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>95000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>96000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>126000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1526000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>518000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1712000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1699000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1699000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1698000</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>90000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>119000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>122000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>116000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>86000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1158000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>2257000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1159000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16033000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14648000</v>
+      </c>
+      <c r="F59" s="3">
         <v>14077000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14117000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14456000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12982000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12364000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12352000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12086000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>15557000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10546000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10440000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11105000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10113000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9859000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>9802000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10041000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>9340000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>8599000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>8587000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>8730000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>8252000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>7801000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>10811000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>7839000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>6999000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32516000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33067000</v>
+      </c>
+      <c r="F60" s="3">
         <v>31998000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>31845000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>31545000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>33342000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>29441000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27982000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26564000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32667000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>24844000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>22779000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22695000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>26265000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23237000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22832000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>22450000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>22473000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19926000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19411000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>18913000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>20360000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>17495000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>21394000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>18860000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>19161000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6506000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6472000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6484000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6507000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6658000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6667000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6692000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7495000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7522000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7529000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8171000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8227000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5643000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5495000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5124000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4799000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4794000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6480000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6487000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>6492000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>6505000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>6478000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>6573000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2821000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2815000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>3933000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5027000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5012000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5037000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4987000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4899000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5140000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5057000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4823000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4703000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4712000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3836000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3523000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3445000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3447000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1455000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1301000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1372000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1382000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1314000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1255000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1232000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1184000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1200000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1231000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1243000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1207000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +5044,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +5130,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5216,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44054000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44556000</v>
+      </c>
+      <c r="F66" s="3">
         <v>43524000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>43884000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43660000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45686000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>41704000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>40792000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>39266000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>45357000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>37272000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34930000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32168000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>35570000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>30157000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>29266000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>28941000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>30647000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>28031000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>27462000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>26949000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>28300000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>25569000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>25733000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>23190000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>24559000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5338,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5420,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5506,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5592,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5678,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17341000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>16412000</v>
+      </c>
+      <c r="F72" s="3">
         <v>15585000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>14294000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>13474000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>12606000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>11666000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>10466000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9766000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9232000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12879000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11883000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11384000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>10787000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10258000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9496000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8916000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8387000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>7887000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>7176000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>6727000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6300000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5988000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5508000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>8140000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>7882000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5850,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5936,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +6022,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22794000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21471000</v>
+      </c>
+      <c r="F76" s="3">
         <v>20642000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19968000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>19418000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>18463000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17564000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16482000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15652000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14860000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18284000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16802000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16614000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15861000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15243000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14486000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13858000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13167000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12799000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12143000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11754000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11078000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10778000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9898000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>12440000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>11973000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6194,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44969</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44885</v>
+      </c>
+      <c r="F80" s="2">
         <v>44801</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44689</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44605</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44521</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44437</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44325</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44241</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44157</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44073</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43961</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43877</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43793</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43709</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43597</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43513</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43429</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43345</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43233</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43149</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43065</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42981</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42862</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42778</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42694</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1868000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1353000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1299000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1324000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1670000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1220000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>951000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1166000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1389000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>838000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>931000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>844000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>906000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>889000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>767000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1043000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>750000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>701000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>640000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>919000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>700000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>515000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>545000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,88 +6407,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>447000</v>
+      </c>
+      <c r="F83" s="3">
         <v>594000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>438000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>436000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>432000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>559000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>402000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>416000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>404000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>505000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>382000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>389000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>369000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>473000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>336000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>352000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>331000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>431000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>327000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>344000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>335000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>441000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>320000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>312000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>297000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6575,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6661,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6747,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6833,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6919,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3192000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2506000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1227000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>401000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3258000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2940000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3333000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2647000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4242000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1898000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>619000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2102000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2293000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2105000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-219000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2177000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1554000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2105000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>109000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2006000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1834000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1606000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>493000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2793000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +7041,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-890000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-854000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-723000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1055000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-573000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-893000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-852000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-698000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-545000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-715000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-672000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-587000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-730000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-585000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-508000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-820000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-779000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-540000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-667000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +7209,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7295,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-808000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1487000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-481000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-912000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-355000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-682000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-941000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-470000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-630000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-920000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-774000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-434000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-737000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-694000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-373000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-785000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-816000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-498000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-397000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-655000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,88 +7417,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-797000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-351000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-350000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-698000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-310000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4430000</v>
       </c>
       <c r="K96" s="3">
         <v>-310000</v>
       </c>
       <c r="L96" s="3">
+        <v>-4430000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-619000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-287000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-573000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-286000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-251000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-501000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-250000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-219000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-220000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-3508000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-198000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-198000</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7585,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7671,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7757,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-863000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1940000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-676000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-828000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-839000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-719000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-419000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2999000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-836000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-397000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-49000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-267000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-266000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-690000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-58000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-165000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-660000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-69000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-142000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-24000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>68000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-49000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>46000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-20000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>67000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2114000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>653000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-990000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-626000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-932000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1493000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1032000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1589000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1313000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1451000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3040000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>643000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>933000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-698000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>723000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>178000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1096000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-908000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1143000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>8000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-206000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-61000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1426000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45053</v>
+      </c>
+      <c r="E7" s="2">
         <v>44969</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44885</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44801</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44689</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44605</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44521</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44437</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44325</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44241</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44157</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44073</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43961</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43877</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43793</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43709</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43597</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43513</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43429</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43345</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43233</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43149</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43065</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42981</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42862</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42778</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42694</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53648000</v>
+      </c>
+      <c r="E8" s="3">
         <v>55266000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54437000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72091000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52596000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51904000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50363000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62675000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45277000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44769000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43208000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53383000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37266000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39072000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37040000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47498000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34740000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35396000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35069000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44411000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32361000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32995000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31809000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>42300000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>28860000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>29766000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>28099000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47175000</v>
+      </c>
+      <c r="E9" s="3">
         <v>48423000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47769000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63558000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46355000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45517000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43952000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54733000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39415000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39078000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37458000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46337000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32205000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34056000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32233000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41310000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30233000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30720000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>30623000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38671000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28131000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28733000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>27617000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>36697000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>24970000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>25927000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>24288000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6473000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6843000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6668000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8533000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6241000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6387000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6411000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7942000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5862000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5691000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5750000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7046000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5061000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5016000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4807000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6188000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4507000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4676000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4446000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5740000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4230000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4262000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4192000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5603000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3890000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3839000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3811000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1260,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,8 +1274,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1265,28 +1284,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>118000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>84000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>57000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>246000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>212000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>370000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>302000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1303,8 +1322,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1330,8 +1349,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,20 +1387,20 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>16000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>4000</v>
       </c>
       <c r="Q15" s="3">
         <v>4000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>4000</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1395,8 +1417,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1416,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51969000</v>
+      </c>
+      <c r="E17" s="3">
         <v>53363000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52686000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69594000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50805000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50092000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48670000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60400000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43614000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43429000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41778000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51454000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36087000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37806000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35979000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46035000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33618000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34193000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>34120000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>42965000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>31294000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>31979000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>30858000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>40850000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>27892000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>28922000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>27250000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1903000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1751000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2497000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1791000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1812000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1693000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2275000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1663000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1340000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1430000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1929000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1179000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1061000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1463000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1122000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1203000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>949000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1446000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1067000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1016000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>951000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1450000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>968000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>844000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>849000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,242 +1681,249 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E20" s="3">
         <v>114000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>53000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>67000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>25000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>42000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>68000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>45000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>74000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>46000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>22000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>51000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>41000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>22000</v>
       </c>
       <c r="Z20" s="3">
         <v>22000</v>
       </c>
       <c r="AA20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>18000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2279000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2487000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2251000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3158000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2273000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2167000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2902000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2092000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1775000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1863000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2425000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1582000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1465000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2010000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1494000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1601000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1302000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1928000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1435000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1367000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1308000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1913000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1306000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1152000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1172000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="3">
         <v>34000</v>
       </c>
       <c r="F22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G22" s="3">
         <v>48000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>40000</v>
       </c>
       <c r="L22" s="3">
         <v>40000</v>
       </c>
       <c r="M22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="N22" s="3">
         <v>39000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>35000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>36000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>48000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>37000</v>
       </c>
       <c r="X22" s="3">
         <v>37000</v>
@@ -1893,194 +1932,203 @@
         <v>37000</v>
       </c>
       <c r="Z22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>53000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>21000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>31000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>29000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1983000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1770000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2516000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1827000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1801000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1696000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2291000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1650000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1319000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1420000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1869000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1163000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1058000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1492000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1123000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1215000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>935000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1449000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1071000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>986000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>936000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1419000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>965000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>809000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>846000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E24" s="3">
         <v>517000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>406000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>638000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>455000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>481000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>351000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>597000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>417000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>348000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>239000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>465000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>311000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>330000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>202000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>340000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>280000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>377000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>185000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>402000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>310000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>247000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>285000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>487000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>259000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>288000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>291000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1466000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1364000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1878000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1372000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1320000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1345000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1694000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1233000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>971000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1181000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1404000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>852000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>947000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>856000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1152000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>843000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>838000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>750000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1047000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>761000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>739000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>651000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>932000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>706000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>521000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>555000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1466000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1364000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1868000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1353000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1299000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1324000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1670000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1220000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>951000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1166000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1389000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>838000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>931000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>844000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1139000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>833000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>826000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>740000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1037000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>749000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>727000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>640000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>919000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>515000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>545000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2449,8 +2509,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2458,11 +2518,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2470,29 +2530,29 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-42000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>73000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>63000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>27000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>6000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-114000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-53000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-67000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-25000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-42000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-68000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-74000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-46000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-22000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-51000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-41000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-22000</v>
       </c>
       <c r="Z32" s="3">
         <v>-22000</v>
       </c>
       <c r="AA32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1466000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1364000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1868000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1353000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1299000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1324000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1670000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1220000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>951000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1166000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1389000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>838000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>931000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>844000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1097000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>906000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>889000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>767000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1043000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>750000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>701000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>640000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>919000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>515000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>545000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1466000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1364000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1868000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1353000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1299000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1324000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1670000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1220000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>951000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1166000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1389000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>838000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>931000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>844000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1097000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>906000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>889000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>767000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1043000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>750000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>701000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>640000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>919000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>515000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>545000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45053</v>
+      </c>
+      <c r="E38" s="2">
         <v>44969</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44885</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44801</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44689</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44605</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44521</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44437</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44325</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44241</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44157</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44073</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43961</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43877</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43793</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43709</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43597</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43513</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43429</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43345</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43233</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43149</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43065</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42981</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42862</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42778</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42694</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,524 +3265,543 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12493000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12970000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10856000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10203000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11193000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11819000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12751000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11258000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10226000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8637000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13590000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12277000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10826000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7786000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9027000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8384000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7013000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6080000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6778000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6055000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5877000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4781000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5689000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4546000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4538000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4744000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4805000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E42" s="3">
         <v>735000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>817000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>846000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>638000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>477000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>725000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>917000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>900000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>617000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>833000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1028000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>948000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>929000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>993000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1060000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1154000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1042000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1175000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1204000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1167000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1049000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1196000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1233000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1187000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1221000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1311000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2714000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2312000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2241000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1991000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2232000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1932000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1803000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1595000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1934000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1646000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1550000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1507000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1988000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1711000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1535000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1704000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1995000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1795000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1669000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1593000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2001000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1559000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1432000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1462000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1597000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1498000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16324000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16081000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18571000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17907000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17623000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16485000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16942000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14215000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13975000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13865000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14901000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12242000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11010000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11850000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13818000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11395000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11304000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11356000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12205000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11040000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10626000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10671000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11213000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9834000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>9736000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>9530000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>10721000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1830000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1594000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1499000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1563000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1552000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1312000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1220000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1255000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1126000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1023000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>963000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1094000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1111000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1110000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1175000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1001000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>321000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>430000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>397000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>240000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>272000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>333000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>368000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>235000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34289000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34330000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34150000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32696000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33008000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32565000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33850000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29505000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27916000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26308000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32096000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28120000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25254000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23703000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26643000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23485000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22285000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21648000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22954000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20289000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19693000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18899000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19897000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17317000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17256000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17460000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18570000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,94 +3886,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28737000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28583000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27931000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27420000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26874000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26892000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26790000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26382000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26052000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25418000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25073000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25187000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24276000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24077000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23834000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20890000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20475000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20145000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19879000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19681000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19178000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19049000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18682000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18161000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17535000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17342000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17156000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3891,26 +4001,26 @@
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>1290000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1234000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1235000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1217000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1271000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -3927,8 +4037,8 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3954,8 +4064,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3726000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3935000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3946000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4050000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3970000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3621000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3509000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2091000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2072000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1957000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1831000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>978000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>960000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>954000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1025000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>992000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1006000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>981000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>860000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>734000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>755000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>799000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>869000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>840000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>828000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>806000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66752000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66848000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66027000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64166000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63852000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63078000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64149000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59268000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57274000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54918000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60217000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55556000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51732000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48782000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51431000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45400000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43752000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42799000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43814000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40830000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39605000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>38703000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>39378000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36347000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>35631000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>35630000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>36532000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16853000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16407000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18348000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17848000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17651000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17089000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19561000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16278000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15538000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14383000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17014000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14172000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10813000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11072000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14440000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11679000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11331000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10711000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13133000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11237000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10705000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10061000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11992000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9608000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9425000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8764000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11003000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>76000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>71000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>73000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>77000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>799000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>799000</v>
       </c>
       <c r="K58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="L58" s="3">
         <v>92000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>95000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>126000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1526000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>518000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1699000</v>
       </c>
       <c r="S58" s="3">
         <v>1699000</v>
       </c>
       <c r="T58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="U58" s="3">
         <v>1698000</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>90000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>119000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>122000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>116000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>86000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1158000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2257000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1159000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14855000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16033000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14648000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14077000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14117000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14456000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12982000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12364000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12352000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12086000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15557000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10546000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10440000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11105000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10113000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9859000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9802000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10041000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9340000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8599000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8587000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8730000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8252000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7801000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10811000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7839000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6999000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31708000</v>
+      </c>
+      <c r="E60" s="3">
         <v>32516000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33067000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31998000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31845000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31545000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33342000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29441000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27982000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26564000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32667000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24844000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22779000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22695000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26265000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23237000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22832000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22450000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22473000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19926000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19411000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18913000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20360000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17495000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21394000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18860000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19161000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6497000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6506000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6472000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6484000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6507000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6658000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6667000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6692000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7495000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7522000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7529000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8171000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8227000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5643000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5495000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5124000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4799000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4794000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6480000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6487000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6492000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6505000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6478000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6573000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2821000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2815000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3933000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4974000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5027000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5012000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5037000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4987000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4899000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5140000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5057000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4823000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4703000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4712000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3836000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3523000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3445000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3447000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1455000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1301000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1372000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1382000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1314000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1255000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1232000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1184000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1200000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1231000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1243000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1207000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43184000</v>
+      </c>
+      <c r="E66" s="3">
         <v>44054000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44556000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43524000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43884000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43660000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45686000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41704000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39266000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45357000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37272000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34930000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32168000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35570000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30157000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29266000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28941000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30647000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28031000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27462000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26949000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>28300000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25569000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25733000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>23190000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24559000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18035000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17341000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16412000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15585000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14294000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13474000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12606000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11666000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10466000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9766000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9232000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12879000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11883000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11384000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10787000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10258000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9496000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8916000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8387000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7887000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7176000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6727000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6300000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5988000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5508000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8140000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7882000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23568000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22794000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21471000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20642000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19968000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19418000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18463000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17564000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16482000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15652000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14860000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18284000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16802000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16614000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15861000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15243000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14486000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13858000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13167000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12799000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12143000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11754000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11078000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10778000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9898000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12440000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11973000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45053</v>
+      </c>
+      <c r="E80" s="2">
         <v>44969</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44885</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44801</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44689</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44605</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44521</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44437</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44325</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44241</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44157</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44073</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43961</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43877</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43793</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43709</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43597</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43513</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43429</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43345</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43233</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43149</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43065</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42981</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42862</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42778</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42694</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1466000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1364000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1868000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1353000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1299000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1324000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1670000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1220000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>951000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1166000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1389000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>838000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>931000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>844000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1097000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>906000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>889000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>767000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1043000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>750000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>701000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>640000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>919000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>515000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>545000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E83" s="3">
         <v>470000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>447000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>594000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>438000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>436000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>432000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>559000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>402000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>416000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>404000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>505000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>382000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>389000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>369000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>473000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>336000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>352000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>331000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>431000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>327000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>344000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>335000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>441000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>320000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>312000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>297000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3192000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2610000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2506000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1227000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>401000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3258000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2940000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3333000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2647000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4242000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1898000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>619000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2102000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2293000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2105000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-219000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2177000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1554000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2105000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>109000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2006000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1834000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1606000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>493000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2793000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-820000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-890000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-854000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-723000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1055000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-573000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-893000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-852000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-698000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-545000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-715000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-672000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-587000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-730000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-585000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-508000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-820000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-779000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-540000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-667000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1282000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-808000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1057000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1487000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-481000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-912000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-355000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-682000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-941000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-470000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-630000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-920000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-774000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-434000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-737000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-694000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-373000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-785000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-816000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-498000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-397000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-655000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,94 +7651,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-399000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-400000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-797000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-351000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-350000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-698000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-310000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-310000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-619000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-287000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-573000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-286000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-251000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-501000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-250000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-219000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-220000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-198000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-198000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-735000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-352000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-863000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1940000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-676000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-828000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-839000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-719000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-419000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2999000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-836000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-397000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-49000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-267000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-266000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-690000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-165000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-660000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>82000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-69000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-142000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-24000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-34000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>48000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>68000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1000</v>
       </c>
       <c r="S101" s="3">
         <v>-1000</v>
       </c>
       <c r="T101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-17000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-14000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-49000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>46000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>67000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-477000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2114000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>653000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-990000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-626000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-932000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1493000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1032000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1589000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1313000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1451000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3040000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>643000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1371000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>933000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-698000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>723000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>178000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1096000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-908000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1143000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>8000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-206000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-61000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1426000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1505000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>COST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,407 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45172</v>
+      </c>
+      <c r="E7" s="2">
         <v>45053</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44969</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44885</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44801</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44689</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44605</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44521</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44437</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44325</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44241</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44157</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44073</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43961</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43877</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43793</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43709</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43597</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43513</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43429</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43345</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43233</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43149</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43065</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42981</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42862</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42778</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42694</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78939000</v>
+      </c>
+      <c r="E8" s="3">
         <v>53648000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55266000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54437000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72091000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52596000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51904000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50363000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>62675000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45277000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44769000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43208000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53383000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37266000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39072000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37040000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>47498000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34740000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35396000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>35069000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44411000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32361000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32995000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>31809000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>42300000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>28860000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>29766000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>28099000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>36560000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>69219000</v>
+      </c>
+      <c r="E9" s="3">
         <v>47175000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48423000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47769000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63558000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46355000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45517000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43952000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54733000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39415000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39078000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37458000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46337000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32205000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34056000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32233000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41310000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30233000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>30720000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30623000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>38671000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28131000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28733000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>27617000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>36697000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>24970000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>25927000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>24288000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>31649000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9720000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6473000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6843000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6668000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8533000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6241000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6387000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6411000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7942000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5862000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5691000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5750000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7046000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5061000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5016000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4807000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6188000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4507000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4676000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4446000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5740000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4230000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4262000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4192000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5603000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3890000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3839000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3811000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>4911000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1097,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1279,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,8 +1296,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1287,28 +1306,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>118000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>84000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>57000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>246000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>212000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>370000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>302000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1325,8 +1344,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1352,8 +1371,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,20 +1412,20 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>16000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4000</v>
       </c>
       <c r="R15" s="3">
         <v>4000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>4000</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1420,8 +1442,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1441,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76158000</v>
+      </c>
+      <c r="E17" s="3">
         <v>51969000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53363000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52686000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69594000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50805000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50092000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48670000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60400000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43614000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43429000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41778000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51454000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36087000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37806000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35979000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46035000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33618000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>34193000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>34120000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>42965000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>31294000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>31979000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>30858000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>40850000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>27892000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>28922000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>27250000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>35369000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2781000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1679000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1903000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1751000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2497000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1791000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1812000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1693000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2275000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1663000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1340000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1430000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1929000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1266000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1061000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1463000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1122000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1203000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>949000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1446000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1067000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1016000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>951000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1450000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>968000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>844000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>849000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1191000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,251 +1714,258 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E20" s="3">
         <v>128000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>114000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>53000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>67000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>45000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>35000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>74000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>46000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>22000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>51000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>41000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>22000</v>
       </c>
       <c r="AA20" s="3">
         <v>22000</v>
       </c>
       <c r="AB20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AC20" s="3">
         <v>18000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>26000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3707000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2279000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2487000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2251000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3158000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2273000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2167000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2902000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2092000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1775000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1863000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2425000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1582000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1465000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2010000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1494000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1601000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1302000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1928000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1435000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1367000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1308000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1913000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1306000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1152000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1172000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1628000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>34000</v>
       </c>
       <c r="F22" s="3">
         <v>34000</v>
       </c>
       <c r="G22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>40000</v>
       </c>
       <c r="M22" s="3">
         <v>40000</v>
       </c>
       <c r="N22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="O22" s="3">
         <v>39000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>35000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>36000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>48000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>37000</v>
       </c>
       <c r="Y22" s="3">
         <v>37000</v>
@@ -1935,200 +1974,209 @@
         <v>37000</v>
       </c>
       <c r="AA22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>53000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>21000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>31000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>29000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2963000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1771000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1983000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1770000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2516000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1827000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1801000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1696000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2291000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1650000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1319000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1420000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1869000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1163000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1277000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1058000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1492000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1123000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1215000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>935000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1449000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1071000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>986000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>936000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1419000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>965000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>809000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>846000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1181000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E24" s="3">
         <v>469000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>517000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>406000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>638000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>455000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>481000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>351000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>597000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>417000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>348000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>239000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>465000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>311000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>330000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>202000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>340000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>280000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>377000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>185000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>402000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>310000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>247000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>285000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>487000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>259000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>288000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>291000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>396000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1302000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1466000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1364000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1878000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1372000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1320000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1694000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1233000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>971000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1404000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>852000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>947000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>856000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1152000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>843000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>838000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>750000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1047000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>761000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>739000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>651000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>932000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>706000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>521000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>555000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>785000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1302000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1466000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1364000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1868000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1353000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1299000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1324000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1670000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1220000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>951000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1166000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1389000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>838000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>931000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>844000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1139000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>833000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>826000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>740000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1037000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>749000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>727000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>640000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>919000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>700000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>515000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>545000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2572,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2521,11 +2581,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2533,29 +2593,29 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-42000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>73000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>63000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>27000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>6000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-26000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2572,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-128000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-114000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-53000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-67000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-45000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-35000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-74000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-46000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-22000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-51000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-22000</v>
       </c>
       <c r="AA32" s="3">
         <v>-22000</v>
       </c>
       <c r="AB32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-18000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1302000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1466000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1364000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1868000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1353000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1299000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1324000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1670000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1220000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>951000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1166000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1389000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>838000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>931000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>844000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1097000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>906000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>889000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>767000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1043000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>750000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>701000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>640000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>919000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>700000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>515000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>545000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1302000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1466000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1364000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1868000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1353000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1299000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1324000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1670000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1220000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>951000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1166000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1389000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>838000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>931000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>844000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1097000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>906000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>889000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>767000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1043000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>750000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>701000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>640000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>919000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>700000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>515000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>545000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45172</v>
+      </c>
+      <c r="E38" s="2">
         <v>45053</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44969</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44885</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44801</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44689</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44605</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44521</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44437</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44325</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44241</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44157</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44073</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43961</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43877</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43793</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43709</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43597</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43513</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43429</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43345</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43233</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43149</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43065</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42981</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42862</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42778</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42694</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,542 +3351,561 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12493000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12970000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10856000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10203000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11193000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11819000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12751000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11258000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10226000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8637000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13590000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12277000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10826000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7786000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9027000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8384000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7013000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6080000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6778000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6055000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5877000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4781000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5689000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4546000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4538000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4744000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4805000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3379000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1215000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>735000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>817000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>846000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>638000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>477000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>725000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>917000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>900000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>617000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>833000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1028000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>948000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>929000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>993000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1060000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1154000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1042000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1175000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1204000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1167000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1049000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1196000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1233000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1187000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1221000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1311000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1350000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2285000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2502000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2714000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2312000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2241000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1991000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2232000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1932000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1803000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1595000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1934000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1646000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1550000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1988000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1711000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1535000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1704000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1995000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1795000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1669000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1593000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2001000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1559000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1432000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1462000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1597000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1498000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1252000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16651000</v>
+      </c>
+      <c r="E44" s="3">
         <v>16324000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16081000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18571000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17907000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17623000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>16485000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16942000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14215000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13975000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13865000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14901000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12242000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11010000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11850000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13818000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11395000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11304000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11356000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12205000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11040000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10626000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>10671000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>11213000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>9834000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>9736000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>9530000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>10721000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>8969000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1709000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1755000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1830000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1594000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1499000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1563000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1552000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1312000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1220000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1255000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1126000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1023000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>963000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1150000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1094000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1111000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1110000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1175000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1001000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>321000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>430000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>397000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>240000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>272000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>333000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>368000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>235000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>268000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35879000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34289000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34330000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34150000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32696000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33008000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32565000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33850000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29505000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27916000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26308000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32096000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28120000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25254000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23703000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26643000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23485000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22285000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21648000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22954000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20289000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19693000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18899000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19897000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17317000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17256000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17460000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>18570000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>15218000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3889,102 +3993,108 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29397000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28737000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28583000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27931000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27420000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26874000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26892000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26790000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26382000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26052000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25418000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25073000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25187000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24276000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24077000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23834000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20890000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20475000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20145000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19879000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19681000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19178000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19049000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18682000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18161000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17535000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17342000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17156000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>17043000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>994000</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -4004,26 +4114,26 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>1290000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1234000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1235000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1217000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1271000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1242000</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -4040,8 +4150,8 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -4067,8 +4177,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2724000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3726000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3935000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3946000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4050000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3970000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3621000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3509000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2091000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2072000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1957000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1831000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>978000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>960000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1002000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>954000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1025000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>992000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1006000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>981000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>860000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>734000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>755000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>799000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>869000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>840000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>828000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>806000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>902000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68994000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66752000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66848000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66027000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63852000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63078000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64149000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59268000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57274000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54918000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60217000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55556000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51732000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48782000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51431000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45400000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>43752000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42799000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43814000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40830000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39605000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38703000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>39378000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>36347000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>35631000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>35630000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>36532000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>33163000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17483000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16853000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16407000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18348000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17848000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17651000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17089000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19561000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16278000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15538000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14383000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17014000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14172000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10813000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11072000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14440000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11679000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11331000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10711000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13133000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11237000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10705000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10061000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11992000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9608000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9425000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8764000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>11003000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>7612000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1081000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>76000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>71000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>73000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>77000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>799000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>799000</v>
       </c>
       <c r="L58" s="3">
+        <v>799000</v>
+      </c>
+      <c r="M58" s="3">
         <v>92000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>95000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>126000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>518000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1712000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1699000</v>
       </c>
       <c r="T58" s="3">
         <v>1699000</v>
       </c>
       <c r="U58" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="V58" s="3">
         <v>1698000</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>90000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>119000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>122000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>116000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>86000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1158000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2257000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1159000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1100000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15019000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14855000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16033000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14648000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14077000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14117000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14456000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12982000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12364000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12352000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12086000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15557000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10546000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10440000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11105000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10113000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9859000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9802000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10041000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9340000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8599000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8587000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8730000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8252000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7801000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10811000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7839000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6999000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>6863000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33583000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31708000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32516000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33067000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31998000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31845000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31545000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33342000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29441000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27982000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26564000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32667000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24844000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22779000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22695000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26265000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23237000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22832000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22450000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22473000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19926000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19411000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18913000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20360000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17495000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21394000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>18860000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>19161000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>15575000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5377000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6497000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6506000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6472000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6484000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6507000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6658000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6667000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6692000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7495000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7522000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7529000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8171000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8227000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5643000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5495000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5124000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4799000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4794000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6480000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6487000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6492000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6505000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6478000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6573000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2821000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2815000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3933000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>4061000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4976000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4974000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5027000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5012000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5037000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4987000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4899000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5140000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5057000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4823000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4703000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4712000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3836000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3523000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3445000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3447000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1455000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1301000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1372000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1382000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1314000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1255000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1232000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1184000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1200000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1231000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1243000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1207000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1195000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43936000</v>
+      </c>
+      <c r="E66" s="3">
         <v>43184000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44054000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44556000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43884000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43660000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45686000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41704000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39266000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45357000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37272000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34930000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32168000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35570000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30157000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29266000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28941000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30647000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28031000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27462000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26949000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>28300000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25569000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25733000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>23190000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>24559000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>21084000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19521000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18035000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17341000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16412000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15585000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14294000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13474000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12606000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11666000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10466000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9766000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9232000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12879000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11883000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11384000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10787000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10258000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9496000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8916000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8387000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7887000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7176000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6727000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6300000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5988000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5508000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8140000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7882000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>7686000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25058000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23568000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22794000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21471000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20642000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19968000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19418000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18463000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17564000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16482000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15652000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14860000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18284000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16802000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16614000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15861000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15243000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14486000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13858000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13167000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12799000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12143000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11754000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11078000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10778000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9898000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12440000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>11973000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>12079000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45172</v>
+      </c>
+      <c r="E80" s="2">
         <v>45053</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44969</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44885</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44801</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44689</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44605</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44521</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44437</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44325</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44241</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44157</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44073</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43961</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43877</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43793</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43709</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43597</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43513</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43429</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43345</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43233</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43149</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43065</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42981</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42862</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42778</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42694</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42610</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1302000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1466000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1364000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1868000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1353000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1299000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1324000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1670000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1220000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>951000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1166000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1389000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>838000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>931000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>844000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1097000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>906000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>889000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>767000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1043000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>750000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>701000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>640000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>919000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>700000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>515000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>545000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>779000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E83" s="3">
         <v>472000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>470000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>447000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>594000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>438000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>436000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>432000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>559000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>402000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>416000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>404000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>505000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>382000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>389000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>369000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>473000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>336000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>352000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>331000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>431000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>327000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>344000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>335000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>441000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>320000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>312000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>297000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>408000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3725000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1541000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3192000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2610000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2506000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1227000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>401000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3258000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2940000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3333000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2647000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4242000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1898000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>619000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2102000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2293000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2105000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-219000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2177000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1554000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2105000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>109000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2006000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1834000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1606000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>493000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2793000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-169000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1556000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-820000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-890000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1259000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-854000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-723000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1055000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1028000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-573000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-893000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-852000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-698000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-545000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-715000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1009000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-672000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-587000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-730000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1056000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-585000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-508000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-820000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-779000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-540000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-516000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-667000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-849000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1825000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1282000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-808000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1487000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-481000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-912000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1155000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1343000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-355000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-682000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-941000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1850000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-470000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-630000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-920000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-774000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-434000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-737000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1095000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-694000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-373000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-785000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-816000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-498000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-397000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-655000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1025000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,97 +7884,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-452000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-399000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-797000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-351000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-350000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-698000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-310000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4430000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-310000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-619000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-573000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-286000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-251000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-501000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-250000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-219000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-220000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-3508000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-198000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-198000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-394000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8250,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-664000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-735000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-352000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-863000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1940000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-676000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-828000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-839000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-719000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-419000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4650000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1918000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2999000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1392000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-836000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-397000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-49000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-267000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-266000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-690000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1077000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1316000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-165000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-660000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>82000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-69000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-142000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-24000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-34000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>48000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>68000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1000</v>
       </c>
       <c r="T101" s="3">
         <v>-1000</v>
       </c>
       <c r="U101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-17000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-14000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-49000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>46000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>67000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>8000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-477000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2114000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>653000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-990000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-626000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-932000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1493000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1032000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1589000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4953000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1313000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1451000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3040000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1241000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>643000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1371000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>933000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-698000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>723000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>178000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1096000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-908000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1143000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>8000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-206000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-61000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1426000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1505000</v>
       </c>
     </row>
